--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_4_29.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_4_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1492675.6572229</v>
+        <v>1491963.355399856</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058544</v>
+        <v>632041.4518058538</v>
       </c>
     </row>
     <row r="9">
@@ -1230,55 +1230,55 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.199249640013477</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>3.199249640013477</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>3.199249640013477</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>2.817899082923868</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.199249640013477</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3.199249640013477</v>
-      </c>
-      <c r="R9" t="n">
-        <v>3.199249640013477</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1382,10 +1382,10 @@
         <v>188.4979333192472</v>
       </c>
       <c r="G11" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>84.35908443270999</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,25 +1415,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.73328122929901</v>
+        <v>16.73328122929895</v>
       </c>
       <c r="S11" t="n">
-        <v>49.36873040538035</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.31761724675142</v>
+        <v>44.31761724675137</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>72.00227733958187</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>68.58902067611797</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7481996726991</v>
+        <v>159.748199672699</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>181.6344501416382</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>126.7249301549411</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.369887371298091</v>
+        <v>9.369887371298034</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>13.44252716693648</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="T12" t="n">
-        <v>36.82265945242245</v>
+        <v>36.82265945242239</v>
       </c>
       <c r="U12" t="n">
-        <v>59.07980534382078</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="V12" t="n">
-        <v>62.50065676233442</v>
+        <v>62.50065676233436</v>
       </c>
       <c r="W12" t="n">
-        <v>88.55631942394376</v>
+        <v>154.5635812592638</v>
       </c>
       <c r="X12" t="n">
-        <v>39.16465028640278</v>
+        <v>39.16465028640272</v>
       </c>
       <c r="Y12" t="n">
-        <v>188.4979333192472</v>
+        <v>45.23602198095773</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28169700256629</v>
+        <v>25.28169700256623</v>
       </c>
       <c r="S13" t="n">
-        <v>57.28978021311273</v>
+        <v>57.28978021311268</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61329429725518</v>
+        <v>45.61329429725512</v>
       </c>
       <c r="U13" t="n">
-        <v>110.5082928154978</v>
+        <v>110.5082928154977</v>
       </c>
       <c r="V13" t="n">
-        <v>66.96075103138207</v>
+        <v>66.96075103138202</v>
       </c>
       <c r="W13" t="n">
-        <v>112.1624429362675</v>
+        <v>112.1624429362674</v>
       </c>
       <c r="X13" t="n">
-        <v>43.7711912551747</v>
+        <v>43.77119125517464</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99300866110059</v>
+        <v>38.99300866110053</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>172.0572332281109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>35.66099036187417</v>
       </c>
       <c r="E14" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>62.86150506240825</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,25 +1652,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>16.73328122929892</v>
       </c>
       <c r="S14" t="n">
-        <v>49.36873040538038</v>
+        <v>49.36873040538026</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.31761724675134</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>72.00227733958184</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>53.79874419980428</v>
+        <v>159.748199672699</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>181.6344501416382</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.36988737129812</v>
+        <v>9.369887371298006</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.869455874161041</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S15" t="n">
-        <v>82.91476623032392</v>
+        <v>13.4425271669364</v>
       </c>
       <c r="T15" t="n">
+        <v>36.82265945242236</v>
+      </c>
+      <c r="U15" t="n">
         <v>188.4979333192472</v>
       </c>
-      <c r="U15" t="n">
-        <v>59.07980534382081</v>
-      </c>
       <c r="V15" t="n">
-        <v>62.50065676233444</v>
+        <v>62.50065676233433</v>
       </c>
       <c r="W15" t="n">
-        <v>88.55631942394379</v>
+        <v>88.55631942394368</v>
       </c>
       <c r="X15" t="n">
-        <v>188.4979333192472</v>
+        <v>39.16465028640269</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.23602198095782</v>
+        <v>158.448345053672</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28169700256632</v>
+        <v>25.2816970025662</v>
       </c>
       <c r="S16" t="n">
-        <v>57.28978021311276</v>
+        <v>57.28978021311265</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61329429725521</v>
+        <v>45.61329429725509</v>
       </c>
       <c r="U16" t="n">
-        <v>110.5082928154978</v>
+        <v>110.5082928154977</v>
       </c>
       <c r="V16" t="n">
-        <v>66.9607510313821</v>
+        <v>66.96075103138199</v>
       </c>
       <c r="W16" t="n">
-        <v>112.1624429362675</v>
+        <v>112.1624429362674</v>
       </c>
       <c r="X16" t="n">
-        <v>43.77119125517473</v>
+        <v>43.77119125517461</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99300866110062</v>
+        <v>38.9930086611005</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.63956945084891</v>
+        <v>76.63956945084885</v>
       </c>
       <c r="C17" t="n">
-        <v>52.7578264541944</v>
+        <v>52.75782645419434</v>
       </c>
       <c r="D17" t="n">
-        <v>40.32448871524286</v>
+        <v>40.32448871524281</v>
       </c>
       <c r="E17" t="n">
-        <v>74.03124113465174</v>
+        <v>74.03124113465168</v>
       </c>
       <c r="F17" t="n">
-        <v>105.7515787130291</v>
+        <v>105.751578713029</v>
       </c>
       <c r="G17" t="n">
-        <v>121.3905020356641</v>
+        <v>121.390502035664</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57372768156616</v>
+        <v>49.57372768156608</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.4321126821676</v>
+        <v>23.43211268216754</v>
       </c>
       <c r="W17" t="n">
-        <v>40.44879289878247</v>
+        <v>40.44879289878241</v>
       </c>
       <c r="X17" t="n">
-        <v>62.33504336772171</v>
+        <v>62.33504336772165</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.83789649146547</v>
+        <v>84.83789649146541</v>
       </c>
     </row>
     <row r="18">
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>166.0289796675929</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,19 +1968,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="T18" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>188.4979333192472</v>
       </c>
       <c r="V18" t="n">
-        <v>167.3319418138598</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.63956945084882</v>
+        <v>76.63956945084891</v>
       </c>
       <c r="C20" t="n">
         <v>52.7578264541944</v>
@@ -2096,7 +2096,7 @@
         <v>121.3905020356641</v>
       </c>
       <c r="H20" t="n">
-        <v>49.57372768156614</v>
+        <v>49.57372768156615</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,28 +2202,28 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.869455874161041</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S21" t="n">
         <v>188.4979333192472</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>24.43972300435418</v>
       </c>
       <c r="V21" t="n">
-        <v>106.6843534095292</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>188.4979333192472</v>
       </c>
       <c r="X21" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.63956945084885</v>
+        <v>76.63956945084891</v>
       </c>
       <c r="C23" t="n">
-        <v>52.75782645419434</v>
+        <v>52.7578264541944</v>
       </c>
       <c r="D23" t="n">
-        <v>40.32448871524281</v>
+        <v>40.32448871524286</v>
       </c>
       <c r="E23" t="n">
-        <v>74.03124113465168</v>
+        <v>74.03124113465174</v>
       </c>
       <c r="F23" t="n">
-        <v>105.751578713029</v>
+        <v>105.7515787130291</v>
       </c>
       <c r="G23" t="n">
         <v>121.3905020356641</v>
       </c>
       <c r="H23" t="n">
-        <v>49.5737276815661</v>
+        <v>49.57372768156614</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>23.43211268216754</v>
+        <v>23.4321126821676</v>
       </c>
       <c r="W23" t="n">
-        <v>40.44879289878241</v>
+        <v>40.44879289878247</v>
       </c>
       <c r="X23" t="n">
-        <v>62.33504336772165</v>
+        <v>62.33504336772171</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.83789649146541</v>
+        <v>84.83789649146547</v>
       </c>
     </row>
     <row r="24">
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,31 +2439,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.869455874161041</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>159.1595237934318</v>
       </c>
       <c r="T24" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>106.6843534095291</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>188.4979333192472</v>
       </c>
       <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
         <v>188.4979333192472</v>
       </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
     </row>
     <row r="25">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>160.6024898538324</v>
+        <v>160.6024898538323</v>
       </c>
       <c r="C26" t="n">
-        <v>136.7207468571779</v>
+        <v>136.7207468571778</v>
       </c>
       <c r="D26" t="n">
         <v>124.2874091182263</v>
       </c>
       <c r="E26" t="n">
-        <v>157.9941615376352</v>
+        <v>157.9941615376351</v>
       </c>
       <c r="F26" t="n">
         <v>189.7144991160125</v>
       </c>
       <c r="G26" t="n">
-        <v>205.3534224386476</v>
+        <v>205.3534224386475</v>
       </c>
       <c r="H26" t="n">
-        <v>133.5366480845496</v>
+        <v>133.5366480845495</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52501869147508</v>
+        <v>27.52501869147503</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03224403444722</v>
+        <v>14.03224403444716</v>
       </c>
       <c r="T26" t="n">
-        <v>8.98113087581828</v>
+        <v>8.981130875818224</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66579096864879</v>
+        <v>36.66579096864874</v>
       </c>
       <c r="V26" t="n">
-        <v>107.3950330851511</v>
+        <v>107.395033085151</v>
       </c>
       <c r="W26" t="n">
         <v>124.4117133017659</v>
       </c>
       <c r="X26" t="n">
-        <v>146.2979637707052</v>
+        <v>146.2979637707051</v>
       </c>
       <c r="Y26" t="n">
         <v>168.8008168944489</v>
@@ -2634,16 +2634,16 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>140.4673607652021</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.486173081489319</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U27" t="n">
-        <v>23.74331897288765</v>
+        <v>23.74331897288759</v>
       </c>
       <c r="V27" t="n">
-        <v>27.16417039140129</v>
+        <v>27.16417039140123</v>
       </c>
       <c r="W27" t="n">
-        <v>53.21983305301063</v>
+        <v>114.9517621432788</v>
       </c>
       <c r="X27" t="n">
-        <v>3.828163915469645</v>
+        <v>3.828163915469588</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.899535610024657</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.9532938421796</v>
+        <v>21.95329384217955</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27680792632205</v>
+        <v>10.27680792632199</v>
       </c>
       <c r="U28" t="n">
-        <v>75.17180644456465</v>
+        <v>75.1718064445646</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62426466044894</v>
+        <v>31.62426466044889</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82595656533437</v>
+        <v>76.82595656533431</v>
       </c>
       <c r="X28" t="n">
-        <v>8.434704884241569</v>
+        <v>8.434704884241512</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.656522290167459</v>
+        <v>3.656522290167402</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>124.2874091182263</v>
       </c>
       <c r="E29" t="n">
-        <v>157.9941615376352</v>
+        <v>157.9941615376351</v>
       </c>
       <c r="F29" t="n">
         <v>189.7144991160125</v>
@@ -2807,10 +2807,10 @@
         <v>205.3534224386475</v>
       </c>
       <c r="H29" t="n">
-        <v>133.5366480845496</v>
+        <v>133.5366480845495</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52501869147506</v>
+        <v>27.52501869147503</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03224403444719</v>
+        <v>14.03224403444716</v>
       </c>
       <c r="T29" t="n">
-        <v>8.981130875818266</v>
+        <v>8.981130875818238</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66579096864876</v>
+        <v>36.66579096864874</v>
       </c>
       <c r="V29" t="n">
         <v>107.395033085151</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>54.57658127888005</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2925,19 +2925,19 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U30" t="n">
-        <v>23.74331897288762</v>
+        <v>23.74331897288759</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>27.16417039140123</v>
       </c>
       <c r="W30" t="n">
-        <v>53.2198330530106</v>
+        <v>53.21983305301057</v>
       </c>
       <c r="X30" t="n">
-        <v>3.828163915469617</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.899535610024628</v>
+        <v>78.50092057445397</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.95329384217958</v>
+        <v>21.95329384217955</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27680792632202</v>
+        <v>10.27680792632199</v>
       </c>
       <c r="U31" t="n">
-        <v>75.17180644456462</v>
+        <v>75.1718064445646</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62426466044892</v>
+        <v>31.62426466044889</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82595656533434</v>
+        <v>76.82595656533431</v>
       </c>
       <c r="X31" t="n">
-        <v>8.43470488424154</v>
+        <v>8.434704884241512</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.65652229016743</v>
+        <v>3.656522290167402</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>159.774779986968</v>
+        <v>159.7747799869681</v>
       </c>
       <c r="C32" t="n">
-        <v>135.8930369903135</v>
+        <v>135.8930369903136</v>
       </c>
       <c r="D32" t="n">
-        <v>123.459699251362</v>
+        <v>123.4596992513621</v>
       </c>
       <c r="E32" t="n">
-        <v>157.1664516707709</v>
+        <v>157.166451670771</v>
       </c>
       <c r="F32" t="n">
-        <v>188.8867892491482</v>
+        <v>188.8867892491483</v>
       </c>
       <c r="G32" t="n">
-        <v>204.5257125717832</v>
+        <v>204.5257125717833</v>
       </c>
       <c r="H32" t="n">
-        <v>132.7089382176853</v>
+        <v>132.7089382176854</v>
       </c>
       <c r="I32" t="n">
-        <v>26.69730882461076</v>
+        <v>26.69730882461084</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.20453416758289</v>
+        <v>13.20453416758298</v>
       </c>
       <c r="T32" t="n">
-        <v>8.153421008953956</v>
+        <v>8.153421008954041</v>
       </c>
       <c r="U32" t="n">
-        <v>35.83808110178447</v>
+        <v>35.83808110178455</v>
       </c>
       <c r="V32" t="n">
-        <v>106.5673232182867</v>
+        <v>106.5673232182868</v>
       </c>
       <c r="W32" t="n">
-        <v>123.5840034349016</v>
+        <v>123.5840034349017</v>
       </c>
       <c r="X32" t="n">
-        <v>145.4702539038408</v>
+        <v>145.4702539038409</v>
       </c>
       <c r="Y32" t="n">
-        <v>167.9731070275846</v>
+        <v>167.9731070275847</v>
       </c>
     </row>
     <row r="33">
@@ -3105,19 +3105,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.88153082329798</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>117.7462467332256</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U33" t="n">
-        <v>22.91560910602333</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V33" t="n">
-        <v>26.33646052453696</v>
+        <v>26.33646052453705</v>
       </c>
       <c r="W33" t="n">
-        <v>52.39212318614631</v>
+        <v>52.39212318614639</v>
       </c>
       <c r="X33" t="n">
-        <v>3.00045404860532</v>
+        <v>3.000454048605405</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.071825743160332</v>
+        <v>9.071825743160417</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.12558397531528</v>
+        <v>21.12558397531537</v>
       </c>
       <c r="T34" t="n">
-        <v>9.449098059457725</v>
+        <v>9.44909805945781</v>
       </c>
       <c r="U34" t="n">
-        <v>74.34409657770033</v>
+        <v>74.34409657770041</v>
       </c>
       <c r="V34" t="n">
-        <v>30.79655479358462</v>
+        <v>30.7965547935847</v>
       </c>
       <c r="W34" t="n">
-        <v>75.99824669847004</v>
+        <v>75.99824669847013</v>
       </c>
       <c r="X34" t="n">
-        <v>7.606995017377244</v>
+        <v>7.606995017377329</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.828812423303134</v>
+        <v>2.828812423303219</v>
       </c>
     </row>
     <row r="35">
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>5.549396184157303</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3363,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3387,22 +3387,22 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.869455874161041</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>154.7567727839725</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>102.0280721215647</v>
+        <v>102.0280721215646</v>
       </c>
       <c r="C38" t="n">
-        <v>78.14632912491015</v>
+        <v>78.1463291249101</v>
       </c>
       <c r="D38" t="n">
-        <v>65.71299138595862</v>
+        <v>65.71299138595856</v>
       </c>
       <c r="E38" t="n">
-        <v>99.41974380536749</v>
+        <v>99.41974380536743</v>
       </c>
       <c r="F38" t="n">
         <v>131.1400813837448</v>
       </c>
       <c r="G38" t="n">
-        <v>146.7790047063799</v>
+        <v>146.7790047063798</v>
       </c>
       <c r="H38" t="n">
-        <v>74.96223035228189</v>
+        <v>74.96223035228184</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>48.82061535288335</v>
+        <v>48.82061535288329</v>
       </c>
       <c r="W38" t="n">
-        <v>65.83729556949822</v>
+        <v>65.83729556949817</v>
       </c>
       <c r="X38" t="n">
-        <v>87.72354603843746</v>
+        <v>87.72354603843741</v>
       </c>
       <c r="Y38" t="n">
         <v>110.2263991621812</v>
@@ -3582,19 +3582,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>60.49802583309212</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.869455874161041</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3633,19 +3633,19 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>114.9195520732533</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.59738871229694</v>
+        <v>16.59738871229688</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>18.25153883306666</v>
+        <v>18.2515388330666</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.140772277173735</v>
+        <v>9.140772277173738</v>
       </c>
       <c r="V41" t="n">
         <v>79.870014393676</v>
@@ -3825,16 +3825,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>67.51498491521805</v>
       </c>
       <c r="H42" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3861,28 +3861,28 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>30.32246242186541</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
         <v>25.69481436153558</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -4053,16 +4053,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>151.9274113324019</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4098,16 +4098,16 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>150.0639727560567</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4116,10 +4116,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>25.69481436153558</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="C8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="D8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="E8" t="n">
         <v>6.719070557086891</v>
@@ -4832,22 +4832,22 @@
         <v>6.590454258427762</v>
       </c>
       <c r="T8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="U8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="V8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="W8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="X8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.333867974168094</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="C9" t="n">
-        <v>6.333867974168094</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="D9" t="n">
-        <v>6.333867974168094</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="E9" t="n">
-        <v>6.333867974168094</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="F9" t="n">
-        <v>6.333867974168094</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="G9" t="n">
-        <v>6.333867974168094</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="H9" t="n">
-        <v>6.333867974168094</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="I9" t="n">
-        <v>3.487505264143985</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="J9" t="n">
         <v>0.2559399712010781</v>
@@ -4890,28 +4890,28 @@
         <v>3.42319711481442</v>
       </c>
       <c r="M9" t="n">
-        <v>3.42319711481442</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="N9" t="n">
-        <v>6.462484272827225</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="O9" t="n">
-        <v>9.629741416440567</v>
+        <v>9.757711402041103</v>
       </c>
       <c r="P9" t="n">
         <v>12.79699856005391</v>
       </c>
       <c r="Q9" t="n">
+        <v>12.79699856005391</v>
+      </c>
+      <c r="R9" t="n">
+        <v>12.79699856005391</v>
+      </c>
+      <c r="S9" t="n">
         <v>9.565433267111001</v>
       </c>
-      <c r="R9" t="n">
-        <v>6.333867974168094</v>
-      </c>
-      <c r="S9" t="n">
-        <v>6.333867974168094</v>
-      </c>
       <c r="T9" t="n">
-        <v>6.333867974168094</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="U9" t="n">
         <v>6.333867974168094</v>
@@ -4920,13 +4920,13 @@
         <v>6.333867974168094</v>
       </c>
       <c r="W9" t="n">
-        <v>6.333867974168094</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="X9" t="n">
-        <v>6.333867974168094</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.333867974168094</v>
+        <v>0.2559399712010781</v>
       </c>
     </row>
     <row r="10">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>481.0949367576656</v>
+        <v>205.481787513264</v>
       </c>
       <c r="C11" t="n">
-        <v>481.0949367576656</v>
+        <v>205.481787513264</v>
       </c>
       <c r="D11" t="n">
-        <v>481.0949367576656</v>
+        <v>205.481787513264</v>
       </c>
       <c r="E11" t="n">
-        <v>481.0949367576656</v>
+        <v>205.481787513264</v>
       </c>
       <c r="F11" t="n">
-        <v>290.6929839099409</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G11" t="n">
-        <v>100.2910310622165</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H11" t="n">
         <v>15.07983466553977</v>
@@ -5039,19 +5039,19 @@
         <v>15.07983466553977</v>
       </c>
       <c r="J11" t="n">
-        <v>115.4328134021288</v>
+        <v>115.4328134021289</v>
       </c>
       <c r="K11" t="n">
-        <v>285.139674688828</v>
+        <v>159.9322366261568</v>
       </c>
       <c r="L11" t="n">
-        <v>411.1889870682943</v>
+        <v>346.5451906122115</v>
       </c>
       <c r="M11" t="n">
-        <v>492.0508861552416</v>
+        <v>533.1581445982662</v>
       </c>
       <c r="N11" t="n">
-        <v>567.3787792909339</v>
+        <v>719.7710985843208</v>
       </c>
       <c r="O11" t="n">
         <v>753.9917332769886</v>
@@ -5066,25 +5066,25 @@
         <v>737.0894290049695</v>
       </c>
       <c r="S11" t="n">
-        <v>687.2220245550903</v>
+        <v>737.0894290049695</v>
       </c>
       <c r="T11" t="n">
-        <v>642.4567546088767</v>
+        <v>692.324159058756</v>
       </c>
       <c r="U11" t="n">
-        <v>642.4567546088767</v>
+        <v>619.5945859884713</v>
       </c>
       <c r="V11" t="n">
-        <v>642.4567546088767</v>
+        <v>550.3127469216854</v>
       </c>
       <c r="W11" t="n">
-        <v>481.0949367576656</v>
+        <v>388.9509290704743</v>
       </c>
       <c r="X11" t="n">
-        <v>481.0949367576656</v>
+        <v>205.481787513264</v>
       </c>
       <c r="Y11" t="n">
-        <v>481.0949367576656</v>
+        <v>205.481787513264</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>132.9922566001715</v>
+        <v>24.54436736382062</v>
       </c>
       <c r="C12" t="n">
-        <v>123.5277239018906</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D12" t="n">
-        <v>123.5277239018906</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E12" t="n">
-        <v>123.5277239018906</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F12" t="n">
-        <v>123.5277239018906</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G12" t="n">
-        <v>123.5277239018906</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H12" t="n">
-        <v>123.5277239018906</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I12" t="n">
         <v>15.07983466553977</v>
@@ -5121,13 +5121,13 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K12" t="n">
-        <v>53.04316068142014</v>
+        <v>53.04316068142018</v>
       </c>
       <c r="L12" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097943</v>
       </c>
       <c r="M12" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137997</v>
       </c>
       <c r="N12" t="n">
         <v>538.6656803998544</v>
@@ -5139,31 +5139,31 @@
         <v>753.9917332769886</v>
       </c>
       <c r="Q12" t="n">
-        <v>753.9917332769886</v>
+        <v>747.0528889596542</v>
       </c>
       <c r="R12" t="n">
-        <v>753.9917332769886</v>
+        <v>747.0528889596542</v>
       </c>
       <c r="S12" t="n">
-        <v>740.4134230073558</v>
+        <v>556.6509361119298</v>
       </c>
       <c r="T12" t="n">
-        <v>703.2188174998585</v>
+        <v>519.4563306044324</v>
       </c>
       <c r="U12" t="n">
-        <v>643.542246445494</v>
+        <v>329.054377756708</v>
       </c>
       <c r="V12" t="n">
-        <v>580.4102699178835</v>
+        <v>265.9224012290976</v>
       </c>
       <c r="W12" t="n">
-        <v>490.9594422169302</v>
+        <v>109.7975716742857</v>
       </c>
       <c r="X12" t="n">
-        <v>451.3991894023819</v>
+        <v>70.23731885973751</v>
       </c>
       <c r="Y12" t="n">
-        <v>260.9972365546575</v>
+        <v>24.54436736382062</v>
       </c>
     </row>
     <row r="13">
@@ -5176,70 +5176,70 @@
         <v>15.07983466553977</v>
       </c>
       <c r="C13" t="n">
-        <v>26.65400701482429</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D13" t="n">
-        <v>59.28996477815785</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E13" t="n">
-        <v>95.39736648959226</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F13" t="n">
-        <v>134.2265346048672</v>
+        <v>53.9090027808148</v>
       </c>
       <c r="G13" t="n">
-        <v>143.5795489385234</v>
+        <v>53.9090027808148</v>
       </c>
       <c r="H13" t="n">
-        <v>155.7801767719407</v>
+        <v>66.10963061423209</v>
       </c>
       <c r="I13" t="n">
-        <v>168.9425198961924</v>
+        <v>66.10963061423209</v>
       </c>
       <c r="J13" t="n">
-        <v>226.2720899006497</v>
+        <v>66.10963061423209</v>
       </c>
       <c r="K13" t="n">
-        <v>226.2720899006497</v>
+        <v>176.1167317879712</v>
       </c>
       <c r="L13" t="n">
-        <v>226.2720899006497</v>
+        <v>176.1167317879712</v>
       </c>
       <c r="M13" t="n">
-        <v>377.6741746672823</v>
+        <v>327.5188165546039</v>
       </c>
       <c r="N13" t="n">
-        <v>377.6741746672823</v>
+        <v>381.4539747889293</v>
       </c>
       <c r="O13" t="n">
-        <v>377.6741746672823</v>
+        <v>520.7166611426675</v>
       </c>
       <c r="P13" t="n">
-        <v>470.2946957351831</v>
+        <v>520.7166611426675</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.7166611426679</v>
+        <v>520.7166611426675</v>
       </c>
       <c r="R13" t="n">
-        <v>495.1795934633081</v>
+        <v>495.1795934633077</v>
       </c>
       <c r="S13" t="n">
-        <v>437.311128601578</v>
+        <v>437.3111286015777</v>
       </c>
       <c r="T13" t="n">
-        <v>391.2370939578859</v>
+        <v>391.2370939578856</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6125557604134</v>
+        <v>279.6125557604132</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9754335064921</v>
+        <v>211.9754335064919</v>
       </c>
       <c r="W13" t="n">
-        <v>98.68003660117138</v>
+        <v>98.68003660117127</v>
       </c>
       <c r="X13" t="n">
-        <v>54.46671210099491</v>
+        <v>54.46671210099485</v>
       </c>
       <c r="Y13" t="n">
         <v>15.07983466553977</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>649.7821629687213</v>
+        <v>224.8962221301712</v>
       </c>
       <c r="C14" t="n">
-        <v>649.7821629687213</v>
+        <v>51.10103705127126</v>
       </c>
       <c r="D14" t="n">
-        <v>649.7821629687213</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E14" t="n">
-        <v>459.3802101209969</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F14" t="n">
-        <v>268.9782572732726</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G14" t="n">
-        <v>78.57630442554812</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H14" t="n">
-        <v>78.57630442554812</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I14" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="J14" t="n">
-        <v>98.17571186577342</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K14" t="n">
-        <v>267.8825731524726</v>
+        <v>184.7866959522391</v>
       </c>
       <c r="L14" t="n">
-        <v>314.6034156332327</v>
+        <v>231.5075384329992</v>
       </c>
       <c r="M14" t="n">
-        <v>395.4653147201799</v>
+        <v>418.1204924190539</v>
       </c>
       <c r="N14" t="n">
-        <v>470.7932078558723</v>
+        <v>493.4483855547463</v>
       </c>
       <c r="O14" t="n">
-        <v>505.01384254854</v>
+        <v>527.669020247414</v>
       </c>
       <c r="P14" t="n">
-        <v>666.4395714324992</v>
+        <v>666.4395714324991</v>
       </c>
       <c r="Q14" t="n">
         <v>753.9917332769886</v>
       </c>
       <c r="R14" t="n">
-        <v>753.9917332769886</v>
+        <v>737.0894290049695</v>
       </c>
       <c r="S14" t="n">
-        <v>704.1243288271095</v>
+        <v>687.2220245550905</v>
       </c>
       <c r="T14" t="n">
-        <v>704.1243288271095</v>
+        <v>642.4567546088772</v>
       </c>
       <c r="U14" t="n">
-        <v>704.1243288271095</v>
+        <v>569.7271815385926</v>
       </c>
       <c r="V14" t="n">
-        <v>704.1243288271095</v>
+        <v>569.7271815385926</v>
       </c>
       <c r="W14" t="n">
-        <v>649.7821629687213</v>
+        <v>408.3653636873815</v>
       </c>
       <c r="X14" t="n">
-        <v>649.7821629687213</v>
+        <v>224.8962221301712</v>
       </c>
       <c r="Y14" t="n">
-        <v>649.7821629687213</v>
+        <v>224.8962221301712</v>
       </c>
     </row>
     <row r="15">
@@ -5331,7 +5331,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24.5443673638207</v>
+        <v>24.54436736382059</v>
       </c>
       <c r="C15" t="n">
         <v>15.07983466553977</v>
@@ -5358,7 +5358,7 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K15" t="n">
-        <v>53.04316068142014</v>
+        <v>53.04316068142015</v>
       </c>
       <c r="L15" t="n">
         <v>170.3760798097942</v>
@@ -5370,37 +5370,37 @@
         <v>538.6656803998543</v>
       </c>
       <c r="O15" t="n">
-        <v>670.3666200188886</v>
+        <v>670.3666200188887</v>
       </c>
       <c r="P15" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="Q15" t="n">
-        <v>747.0528889596541</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="R15" t="n">
-        <v>747.0528889596541</v>
+        <v>617.9111264193344</v>
       </c>
       <c r="S15" t="n">
-        <v>663.3005998381147</v>
+        <v>604.3328161497017</v>
       </c>
       <c r="T15" t="n">
-        <v>472.8986469903904</v>
+        <v>567.1382106422043</v>
       </c>
       <c r="U15" t="n">
-        <v>413.2220759360259</v>
+        <v>376.7362577944799</v>
       </c>
       <c r="V15" t="n">
-        <v>350.0900994084154</v>
+        <v>313.6042812668695</v>
       </c>
       <c r="W15" t="n">
-        <v>260.6392717074621</v>
+        <v>224.1534535659163</v>
       </c>
       <c r="X15" t="n">
-        <v>70.23731885973768</v>
+        <v>184.5932007513681</v>
       </c>
       <c r="Y15" t="n">
-        <v>24.5443673638207</v>
+        <v>24.54436736382059</v>
       </c>
     </row>
     <row r="16">
@@ -5422,61 +5422,61 @@
         <v>15.07983466553977</v>
       </c>
       <c r="F16" t="n">
-        <v>53.90900278081471</v>
+        <v>53.90900278081482</v>
       </c>
       <c r="G16" t="n">
-        <v>53.90900278081471</v>
+        <v>63.26201711447111</v>
       </c>
       <c r="H16" t="n">
-        <v>53.90900278081471</v>
+        <v>63.26201711447111</v>
       </c>
       <c r="I16" t="n">
-        <v>53.90900278081471</v>
+        <v>76.42436023872295</v>
       </c>
       <c r="J16" t="n">
-        <v>111.238572785272</v>
+        <v>76.42436023872295</v>
       </c>
       <c r="K16" t="n">
-        <v>111.238572785272</v>
+        <v>76.42436023872295</v>
       </c>
       <c r="L16" t="n">
-        <v>250.8416077757448</v>
+        <v>220.9608436645631</v>
       </c>
       <c r="M16" t="n">
-        <v>402.2436925423774</v>
+        <v>372.3629284311958</v>
       </c>
       <c r="N16" t="n">
-        <v>402.2436925423774</v>
+        <v>470.2946957351824</v>
       </c>
       <c r="O16" t="n">
-        <v>402.2436925423774</v>
+        <v>470.2946957351824</v>
       </c>
       <c r="P16" t="n">
-        <v>520.7166611426682</v>
+        <v>470.2946957351824</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.7166611426682</v>
+        <v>520.7166611426672</v>
       </c>
       <c r="R16" t="n">
-        <v>495.1795934633082</v>
+        <v>495.1795934633074</v>
       </c>
       <c r="S16" t="n">
-        <v>437.3111286015782</v>
+        <v>437.3111286015775</v>
       </c>
       <c r="T16" t="n">
-        <v>391.237093957886</v>
+        <v>391.2370939578855</v>
       </c>
       <c r="U16" t="n">
-        <v>279.6125557604135</v>
+        <v>279.612555760413</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9754335064922</v>
+        <v>211.9754335064918</v>
       </c>
       <c r="W16" t="n">
-        <v>98.68003660117144</v>
+        <v>98.68003660117121</v>
       </c>
       <c r="X16" t="n">
-        <v>54.46671210099494</v>
+        <v>54.46671210099483</v>
       </c>
       <c r="Y16" t="n">
         <v>15.07983466553977</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3923242961943</v>
+        <v>463.3923242961944</v>
       </c>
       <c r="C17" t="n">
-        <v>410.1015905040787</v>
+        <v>410.1015905040789</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3697837210051</v>
+        <v>369.3697837210053</v>
       </c>
       <c r="E17" t="n">
-        <v>294.590752271862</v>
+        <v>294.5907522718624</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7709757940551</v>
+        <v>187.7709757940554</v>
       </c>
       <c r="G17" t="n">
-        <v>65.15430707116217</v>
+        <v>65.15430707116208</v>
       </c>
       <c r="H17" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="I17" t="n">
-        <v>70.95335735993305</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J17" t="n">
-        <v>70.95335735993305</v>
+        <v>201.6927886515945</v>
       </c>
       <c r="K17" t="n">
-        <v>70.95335735993305</v>
+        <v>201.6927886515945</v>
       </c>
       <c r="L17" t="n">
-        <v>117.6741998406932</v>
+        <v>248.4136311323546</v>
       </c>
       <c r="M17" t="n">
-        <v>198.5360989276404</v>
+        <v>383.5982798306803</v>
       </c>
       <c r="N17" t="n">
-        <v>273.8639920633328</v>
+        <v>458.9261729663726</v>
       </c>
       <c r="O17" t="n">
-        <v>308.0846267560005</v>
+        <v>493.1468076590404</v>
       </c>
       <c r="P17" t="n">
-        <v>308.0846267560005</v>
+        <v>679.7597616450951</v>
       </c>
       <c r="Q17" t="n">
-        <v>462.1637696110814</v>
+        <v>679.7597616450951</v>
       </c>
       <c r="R17" t="n">
-        <v>563.7042339002528</v>
+        <v>679.7597616450951</v>
       </c>
       <c r="S17" t="n">
-        <v>632.9356035051037</v>
+        <v>679.7597616450951</v>
       </c>
       <c r="T17" t="n">
-        <v>707.1675751369972</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="U17" t="n">
         <v>753.9917332769886</v>
       </c>
       <c r="V17" t="n">
-        <v>730.3229325879303</v>
+        <v>730.3229325879304</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4655660235036</v>
+        <v>689.4655660235037</v>
       </c>
       <c r="X17" t="n">
-        <v>626.5008757530776</v>
+        <v>626.5008757530777</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.8060308122034</v>
+        <v>540.8060308122035</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>68.0850572755424</v>
+        <v>182.7858747338155</v>
       </c>
       <c r="C18" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D18" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E18" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F18" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G18" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H18" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I18" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J18" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="K18" t="n">
-        <v>53.04316068142023</v>
+        <v>53.04316068142015</v>
       </c>
       <c r="L18" t="n">
-        <v>170.3760798097943</v>
+        <v>170.3760798097942</v>
       </c>
       <c r="M18" t="n">
-        <v>352.0527264137997</v>
+        <v>352.0527264137996</v>
       </c>
       <c r="N18" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998543</v>
       </c>
       <c r="O18" t="n">
         <v>670.3666200188887</v>
@@ -5616,28 +5616,28 @@
         <v>753.9917332769886</v>
       </c>
       <c r="R18" t="n">
-        <v>617.9111264193344</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="S18" t="n">
-        <v>617.9111264193344</v>
+        <v>563.5897804292642</v>
       </c>
       <c r="T18" t="n">
-        <v>427.5091735716101</v>
+        <v>563.5897804292642</v>
       </c>
       <c r="U18" t="n">
-        <v>237.1072207238857</v>
+        <v>373.1878275815399</v>
       </c>
       <c r="V18" t="n">
-        <v>68.0850572755424</v>
+        <v>182.7858747338155</v>
       </c>
       <c r="W18" t="n">
-        <v>68.0850572755424</v>
+        <v>182.7858747338155</v>
       </c>
       <c r="X18" t="n">
-        <v>68.0850572755424</v>
+        <v>182.7858747338155</v>
       </c>
       <c r="Y18" t="n">
-        <v>68.0850572755424</v>
+        <v>182.7858747338155</v>
       </c>
     </row>
     <row r="19">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3923242961942</v>
+        <v>463.3923242961946</v>
       </c>
       <c r="C20" t="n">
-        <v>410.1015905040786</v>
+        <v>410.101590504079</v>
       </c>
       <c r="D20" t="n">
-        <v>369.369783721005</v>
+        <v>369.3697837210054</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5907522718618</v>
+        <v>294.5907522718624</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7709757940546</v>
+        <v>187.7709757940554</v>
       </c>
       <c r="G20" t="n">
-        <v>65.15430707116214</v>
+        <v>65.15430707116215</v>
       </c>
       <c r="H20" t="n">
         <v>15.07983466553977</v>
@@ -5750,37 +5750,37 @@
         <v>15.07983466553977</v>
       </c>
       <c r="J20" t="n">
-        <v>107.6509158338102</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K20" t="n">
-        <v>107.6509158338102</v>
+        <v>151.6426194480005</v>
       </c>
       <c r="L20" t="n">
-        <v>154.3717583145703</v>
+        <v>198.3634619287606</v>
       </c>
       <c r="M20" t="n">
-        <v>235.2336574015176</v>
+        <v>279.2253610157079</v>
       </c>
       <c r="N20" t="n">
-        <v>310.5615505372099</v>
+        <v>465.8383150017626</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7821852298777</v>
+        <v>652.4512689878172</v>
       </c>
       <c r="P20" t="n">
-        <v>344.7821852298777</v>
+        <v>652.4512689878172</v>
       </c>
       <c r="Q20" t="n">
-        <v>531.3951392159323</v>
+        <v>652.4512689878172</v>
       </c>
       <c r="R20" t="n">
-        <v>632.9356035051037</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="S20" t="n">
-        <v>632.9356035051037</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="T20" t="n">
-        <v>707.1675751369972</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="U20" t="n">
         <v>753.9917332769886</v>
@@ -5792,10 +5792,10 @@
         <v>689.4655660235037</v>
       </c>
       <c r="X20" t="n">
-        <v>626.5008757530777</v>
+        <v>626.5008757530779</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.8060308122031</v>
+        <v>540.8060308122036</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C21" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D21" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E21" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F21" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G21" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H21" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I21" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J21" t="n">
         <v>15.07983466553977</v>
@@ -5853,28 +5853,28 @@
         <v>747.0528889596542</v>
       </c>
       <c r="R21" t="n">
-        <v>747.0528889596542</v>
+        <v>610.972282102</v>
       </c>
       <c r="S21" t="n">
-        <v>556.6509361119298</v>
+        <v>420.5703292542756</v>
       </c>
       <c r="T21" t="n">
-        <v>556.6509361119298</v>
+        <v>230.1683764065512</v>
       </c>
       <c r="U21" t="n">
-        <v>556.6509361119298</v>
+        <v>205.4817875132642</v>
       </c>
       <c r="V21" t="n">
-        <v>448.8889629709912</v>
+        <v>205.4817875132642</v>
       </c>
       <c r="W21" t="n">
-        <v>258.4870101232668</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="X21" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="Y21" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
     </row>
     <row r="22">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3923242961941</v>
+        <v>463.3923242961944</v>
       </c>
       <c r="C23" t="n">
-        <v>410.1015905040787</v>
+        <v>410.1015905040788</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3697837210053</v>
+        <v>369.3697837210051</v>
       </c>
       <c r="E23" t="n">
         <v>294.590752271862</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7709757940551</v>
+        <v>187.7709757940548</v>
       </c>
       <c r="G23" t="n">
-        <v>65.15430707116211</v>
+        <v>65.15430707116214</v>
       </c>
       <c r="H23" t="n">
         <v>15.07983466553977</v>
@@ -5987,52 +5987,52 @@
         <v>15.07983466553977</v>
       </c>
       <c r="J23" t="n">
-        <v>151.6426194480004</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K23" t="n">
-        <v>151.6426194480004</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="L23" t="n">
-        <v>198.3634619287605</v>
+        <v>201.6927886515945</v>
       </c>
       <c r="M23" t="n">
-        <v>279.2253610157078</v>
+        <v>282.5546877385418</v>
       </c>
       <c r="N23" t="n">
-        <v>465.8383150017625</v>
+        <v>469.1676417245965</v>
       </c>
       <c r="O23" t="n">
-        <v>652.4512689878171</v>
+        <v>503.3882764172643</v>
       </c>
       <c r="P23" t="n">
-        <v>652.4512689878171</v>
+        <v>503.3882764172643</v>
       </c>
       <c r="Q23" t="n">
-        <v>652.4512689878171</v>
+        <v>536.395741242975</v>
       </c>
       <c r="R23" t="n">
-        <v>753.9917332769886</v>
+        <v>637.9362055321463</v>
       </c>
       <c r="S23" t="n">
-        <v>753.9917332769886</v>
+        <v>707.1675751369972</v>
       </c>
       <c r="T23" t="n">
-        <v>753.9917332769886</v>
+        <v>707.1675751369972</v>
       </c>
       <c r="U23" t="n">
         <v>753.9917332769886</v>
       </c>
       <c r="V23" t="n">
-        <v>730.32293258793</v>
+        <v>730.3229325879304</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4655660235034</v>
+        <v>689.4655660235037</v>
       </c>
       <c r="X23" t="n">
-        <v>626.5008757530774</v>
+        <v>626.5008757530777</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.8060308122031</v>
+        <v>540.8060308122034</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C24" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D24" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E24" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F24" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G24" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H24" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I24" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J24" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="K24" t="n">
-        <v>53.04316068142014</v>
+        <v>53.04316068142015</v>
       </c>
       <c r="L24" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097943</v>
       </c>
       <c r="M24" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137997</v>
       </c>
       <c r="N24" t="n">
         <v>538.6656803998543</v>
       </c>
       <c r="O24" t="n">
-        <v>670.3666200188886</v>
+        <v>670.3666200188887</v>
       </c>
       <c r="P24" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="Q24" t="n">
-        <v>747.0528889596541</v>
+        <v>747.0528889596542</v>
       </c>
       <c r="R24" t="n">
-        <v>747.0528889596541</v>
+        <v>747.0528889596542</v>
       </c>
       <c r="S24" t="n">
-        <v>747.0528889596541</v>
+        <v>586.2856932087129</v>
       </c>
       <c r="T24" t="n">
-        <v>556.6509361119297</v>
+        <v>586.2856932087129</v>
       </c>
       <c r="U24" t="n">
-        <v>448.8889629709912</v>
+        <v>586.2856932087129</v>
       </c>
       <c r="V24" t="n">
-        <v>258.4870101232668</v>
+        <v>395.8837403609886</v>
       </c>
       <c r="W24" t="n">
-        <v>68.0850572755424</v>
+        <v>395.8837403609886</v>
       </c>
       <c r="X24" t="n">
-        <v>68.0850572755424</v>
+        <v>205.4817875132642</v>
       </c>
       <c r="Y24" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
     </row>
     <row r="25">
@@ -6203,70 +6203,70 @@
         <v>1020.898422489611</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7966579874112</v>
+        <v>882.7966579874109</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2538204942533</v>
+        <v>757.253820494253</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6637583350258</v>
+        <v>597.6637583350256</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0329511471343</v>
+        <v>406.0329511471342</v>
       </c>
       <c r="G26" t="n">
-        <v>198.605251714157</v>
+        <v>198.6052517141567</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71974859845028</v>
+        <v>63.71974859845011</v>
       </c>
       <c r="I26" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2527996589549</v>
+        <v>171.252799658955</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9427824528779</v>
+        <v>375.9427824528781</v>
       </c>
       <c r="L26" t="n">
         <v>634.013527952399</v>
       </c>
       <c r="M26" t="n">
-        <v>926.225330058107</v>
+        <v>926.2253300581074</v>
       </c>
       <c r="N26" t="n">
-        <v>1212.90312621256</v>
+        <v>1212.903126212561</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.473663923989</v>
+        <v>1458.47366392399</v>
       </c>
       <c r="P26" t="n">
-        <v>1654.882514315172</v>
+        <v>1654.882514315173</v>
       </c>
       <c r="Q26" t="n">
-        <v>1777.417797666885</v>
+        <v>1777.417797666886</v>
       </c>
       <c r="R26" t="n">
-        <v>1795.834970757103</v>
+        <v>1795.834970757104</v>
       </c>
       <c r="S26" t="n">
-        <v>1781.660986883924</v>
+        <v>1781.660986883925</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.589137514411</v>
+        <v>1772.589137514412</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.552985020827</v>
+        <v>1735.552985020826</v>
       </c>
       <c r="V26" t="n">
         <v>1627.073153621684</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.404756347173</v>
+        <v>1501.404756347172</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.629035366663</v>
+        <v>1353.629035366662</v>
       </c>
       <c r="Y26" t="n">
         <v>1183.123159715704</v>
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>672.5739588106054</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="C27" t="n">
-        <v>530.6877358154518</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="D27" t="n">
-        <v>369.9076195764835</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="E27" t="n">
-        <v>196.344415697898</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="F27" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="G27" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="H27" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="I27" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="J27" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="K27" t="n">
-        <v>73.88002543102243</v>
+        <v>73.88002543102246</v>
       </c>
       <c r="L27" t="n">
-        <v>191.2129445593965</v>
+        <v>191.2129445593966</v>
       </c>
       <c r="M27" t="n">
         <v>372.889591163402</v>
@@ -6324,31 +6324,31 @@
         <v>793.1206204512955</v>
       </c>
       <c r="Q27" t="n">
-        <v>793.1206204512955</v>
+        <v>786.1817761339611</v>
       </c>
       <c r="R27" t="n">
-        <v>793.1206204512955</v>
+        <v>650.1011692763069</v>
       </c>
       <c r="S27" t="n">
-        <v>793.1206204512955</v>
+        <v>650.1011692763069</v>
       </c>
       <c r="T27" t="n">
-        <v>791.6194355204982</v>
+        <v>432.9588222000541</v>
       </c>
       <c r="U27" t="n">
-        <v>767.6362850428339</v>
+        <v>408.9756717223898</v>
       </c>
       <c r="V27" t="n">
-        <v>740.1977290919235</v>
+        <v>381.5371157714795</v>
       </c>
       <c r="W27" t="n">
-        <v>686.4403219676703</v>
+        <v>265.4242247176625</v>
       </c>
       <c r="X27" t="n">
-        <v>682.5734897298222</v>
+        <v>261.5573924798144</v>
       </c>
       <c r="Y27" t="n">
-        <v>672.5739588106054</v>
+        <v>35.91669941514208</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="C28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="D28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="E28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="F28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="G28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="H28" t="n">
-        <v>83.10044875578309</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="I28" t="n">
-        <v>131.2459133872587</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="J28" t="n">
-        <v>223.5586048989397</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="K28" t="n">
-        <v>266.1625141760094</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="L28" t="n">
-        <v>266.1625141760094</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="M28" t="n">
-        <v>266.1625141760094</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="N28" t="n">
-        <v>266.1625141760094</v>
+        <v>112.7064240684944</v>
       </c>
       <c r="O28" t="n">
-        <v>266.1625141760094</v>
+        <v>112.7064240684944</v>
       </c>
       <c r="P28" t="n">
-        <v>266.1625141760094</v>
+        <v>266.162514176009</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.1625141760094</v>
+        <v>266.162514176009</v>
       </c>
       <c r="R28" t="n">
-        <v>266.1625141760094</v>
+        <v>266.162514176009</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9874698909795</v>
+        <v>243.9874698909792</v>
       </c>
       <c r="T28" t="n">
-        <v>233.6068558239875</v>
+        <v>233.6068558239872</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6757382032151</v>
+        <v>157.6757382032149</v>
       </c>
       <c r="V28" t="n">
-        <v>125.732036525994</v>
+        <v>125.7320365259938</v>
       </c>
       <c r="W28" t="n">
-        <v>48.1300601973734</v>
+        <v>48.13006019737331</v>
       </c>
       <c r="X28" t="n">
-        <v>39.61015627389707</v>
+        <v>39.61015627389703</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514208</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1020.898422489611</v>
+        <v>1020.898422489612</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7966579874113</v>
+        <v>882.7966579874118</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2538204942534</v>
+        <v>757.2538204942539</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6637583350259</v>
+        <v>597.6637583350265</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0329511471346</v>
+        <v>406.0329511471351</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6052517141572</v>
+        <v>198.6052517141578</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71974859845023</v>
+        <v>63.7197485984502</v>
       </c>
       <c r="I29" t="n">
         <v>35.91669941514208</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2527996589549</v>
+        <v>171.2527996589548</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9427824528784</v>
+        <v>375.9427824528781</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0135279523995</v>
+        <v>634.0135279523993</v>
       </c>
       <c r="M29" t="n">
         <v>926.2253300581076</v>
@@ -6476,7 +6476,7 @@
         <v>1212.903126212561</v>
       </c>
       <c r="O29" t="n">
-        <v>1458.47366392399</v>
+        <v>1458.473663923989</v>
       </c>
       <c r="P29" t="n">
         <v>1654.882514315173</v>
@@ -6491,7 +6491,7 @@
         <v>1781.660986883925</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.589137514412</v>
+        <v>1772.589137514411</v>
       </c>
       <c r="U29" t="n">
         <v>1735.552985020827</v>
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>241.2916345196945</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="C30" t="n">
-        <v>186.1637746420379</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="D30" t="n">
-        <v>186.1637746420379</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="E30" t="n">
-        <v>186.1637746420379</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="F30" t="n">
-        <v>186.1637746420379</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="G30" t="n">
         <v>35.91669941514208</v>
@@ -6543,10 +6543,10 @@
         <v>35.91669941514208</v>
       </c>
       <c r="K30" t="n">
-        <v>73.88002543102245</v>
+        <v>73.88002543102246</v>
       </c>
       <c r="L30" t="n">
-        <v>191.2129445593965</v>
+        <v>191.2129445593966</v>
       </c>
       <c r="M30" t="n">
         <v>372.889591163402</v>
@@ -6564,28 +6564,28 @@
         <v>793.1206204512955</v>
       </c>
       <c r="R30" t="n">
-        <v>793.1206204512955</v>
+        <v>657.0400135936413</v>
       </c>
       <c r="S30" t="n">
-        <v>793.1206204512955</v>
+        <v>657.0400135936413</v>
       </c>
       <c r="T30" t="n">
-        <v>575.9782733750427</v>
+        <v>439.8976665173885</v>
       </c>
       <c r="U30" t="n">
-        <v>551.9951228973785</v>
+        <v>415.9145160397243</v>
       </c>
       <c r="V30" t="n">
-        <v>308.9154048010125</v>
+        <v>388.475960088814</v>
       </c>
       <c r="W30" t="n">
-        <v>255.1579976767594</v>
+        <v>334.7185529645608</v>
       </c>
       <c r="X30" t="n">
-        <v>251.2911654389113</v>
+        <v>115.2105585812572</v>
       </c>
       <c r="Y30" t="n">
-        <v>241.2916345196945</v>
+        <v>35.91669941514208</v>
       </c>
     </row>
     <row r="31">
@@ -6625,43 +6625,43 @@
         <v>35.91669941514208</v>
       </c>
       <c r="L31" t="n">
-        <v>35.91669941514208</v>
+        <v>180.7574272613003</v>
       </c>
       <c r="M31" t="n">
-        <v>91.91670631504726</v>
+        <v>180.7574272613003</v>
       </c>
       <c r="N31" t="n">
-        <v>91.91670631504726</v>
+        <v>180.7574272613003</v>
       </c>
       <c r="O31" t="n">
-        <v>266.1625141760092</v>
+        <v>180.7574272613003</v>
       </c>
       <c r="P31" t="n">
-        <v>266.1625141760092</v>
+        <v>180.7574272613003</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.1625141760092</v>
+        <v>266.162514176009</v>
       </c>
       <c r="R31" t="n">
-        <v>266.1625141760092</v>
+        <v>266.162514176009</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9874698909794</v>
+        <v>243.9874698909792</v>
       </c>
       <c r="T31" t="n">
-        <v>233.6068558239874</v>
+        <v>233.6068558239872</v>
       </c>
       <c r="U31" t="n">
-        <v>157.675738203215</v>
+        <v>157.6757382032149</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7320365259939</v>
+        <v>125.7320365259938</v>
       </c>
       <c r="W31" t="n">
-        <v>48.13006019737336</v>
+        <v>48.1300601973733</v>
       </c>
       <c r="X31" t="n">
-        <v>39.61015627389705</v>
+        <v>39.61015627389703</v>
       </c>
       <c r="Y31" t="n">
         <v>35.91669941514208</v>
@@ -6674,64 +6674,64 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1014.789988510278</v>
+        <v>1014.789988510277</v>
       </c>
       <c r="C32" t="n">
-        <v>877.5242945806683</v>
+        <v>877.5242945806677</v>
       </c>
       <c r="D32" t="n">
-        <v>752.8175276601006</v>
+        <v>752.8175276600998</v>
       </c>
       <c r="E32" t="n">
-        <v>594.0635360734634</v>
+        <v>594.0635360734625</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2687994581621</v>
+        <v>403.2687994581612</v>
       </c>
       <c r="G32" t="n">
-        <v>196.6771705977753</v>
+        <v>196.6771705977744</v>
       </c>
       <c r="H32" t="n">
-        <v>62.62773805465892</v>
+        <v>62.62773805465902</v>
       </c>
       <c r="I32" t="n">
-        <v>35.66075944394098</v>
+        <v>35.660759443941</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8162924559495</v>
+        <v>151.9003389533367</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3257080180681</v>
+        <v>357.4097545154553</v>
       </c>
       <c r="L32" t="n">
-        <v>636.2158862857848</v>
+        <v>616.2999327831719</v>
       </c>
       <c r="M32" t="n">
-        <v>909.3311676570746</v>
+        <v>909.3311676570759</v>
       </c>
       <c r="N32" t="n">
-        <v>1196.828396579724</v>
+        <v>1196.828396579725</v>
       </c>
       <c r="O32" t="n">
-        <v>1443.218367059348</v>
+        <v>1443.218367059349</v>
       </c>
       <c r="P32" t="n">
-        <v>1640.446650218727</v>
+        <v>1640.446650218728</v>
       </c>
       <c r="Q32" t="n">
         <v>1763.801366338636</v>
       </c>
       <c r="R32" t="n">
-        <v>1783.037972197049</v>
+        <v>1783.03797219705</v>
       </c>
       <c r="S32" t="n">
-        <v>1769.70005889646</v>
+        <v>1769.700058896461</v>
       </c>
       <c r="T32" t="n">
-        <v>1761.464280099537</v>
+        <v>1761.464280099538</v>
       </c>
       <c r="U32" t="n">
-        <v>1725.264198178543</v>
+        <v>1725.264198178542</v>
       </c>
       <c r="V32" t="n">
         <v>1617.62043735199</v>
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>559.0639538723187</v>
+        <v>35.660759443941</v>
       </c>
       <c r="C33" t="n">
-        <v>369.6516796052824</v>
+        <v>35.660759443941</v>
       </c>
       <c r="D33" t="n">
-        <v>369.6516796052824</v>
+        <v>35.660759443941</v>
       </c>
       <c r="E33" t="n">
-        <v>196.0884757266969</v>
+        <v>35.660759443941</v>
       </c>
       <c r="F33" t="n">
-        <v>35.66075944394098</v>
+        <v>35.660759443941</v>
       </c>
       <c r="G33" t="n">
-        <v>35.66075944394098</v>
+        <v>35.660759443941</v>
       </c>
       <c r="H33" t="n">
-        <v>35.66075944394098</v>
+        <v>35.660759443941</v>
       </c>
       <c r="I33" t="n">
-        <v>35.66075944394098</v>
+        <v>35.660759443941</v>
       </c>
       <c r="J33" t="n">
-        <v>35.66075944394098</v>
+        <v>35.660759443941</v>
       </c>
       <c r="K33" t="n">
-        <v>73.62408545982134</v>
+        <v>73.62408545982137</v>
       </c>
       <c r="L33" t="n">
-        <v>190.9570045881954</v>
+        <v>190.9570045881955</v>
       </c>
       <c r="M33" t="n">
         <v>372.6336511922009</v>
@@ -6801,28 +6801,28 @@
         <v>792.8646804800944</v>
       </c>
       <c r="R33" t="n">
-        <v>792.8646804800944</v>
+        <v>762.6813160121167</v>
       </c>
       <c r="S33" t="n">
-        <v>792.8646804800944</v>
+        <v>762.6813160121167</v>
       </c>
       <c r="T33" t="n">
-        <v>673.9290777192605</v>
+        <v>545.5389689358639</v>
       </c>
       <c r="U33" t="n">
-        <v>650.7819978141864</v>
+        <v>305.9146563127441</v>
       </c>
       <c r="V33" t="n">
-        <v>624.1795124358663</v>
+        <v>279.3121709344238</v>
       </c>
       <c r="W33" t="n">
-        <v>571.2581758842033</v>
+        <v>226.3908343827608</v>
       </c>
       <c r="X33" t="n">
-        <v>568.2274142189453</v>
+        <v>223.3600727175028</v>
       </c>
       <c r="Y33" t="n">
-        <v>559.0639538723187</v>
+        <v>214.1966123708761</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.66075944394098</v>
+        <v>35.660759443941</v>
       </c>
       <c r="C34" t="n">
-        <v>35.66075944394098</v>
+        <v>35.660759443941</v>
       </c>
       <c r="D34" t="n">
-        <v>35.66075944394098</v>
+        <v>35.660759443941</v>
       </c>
       <c r="E34" t="n">
-        <v>35.66075944394098</v>
+        <v>35.660759443941</v>
       </c>
       <c r="F34" t="n">
-        <v>35.66075944394098</v>
+        <v>35.660759443941</v>
       </c>
       <c r="G34" t="n">
-        <v>35.66075944394098</v>
+        <v>35.660759443941</v>
       </c>
       <c r="H34" t="n">
-        <v>65.27952734784695</v>
+        <v>35.660759443941</v>
       </c>
       <c r="I34" t="n">
-        <v>114.2444247475182</v>
+        <v>35.660759443941</v>
       </c>
       <c r="J34" t="n">
-        <v>114.2444247475182</v>
+        <v>35.660759443941</v>
       </c>
       <c r="K34" t="n">
-        <v>260.0540801966768</v>
+        <v>35.660759443941</v>
       </c>
       <c r="L34" t="n">
-        <v>260.0540801966768</v>
+        <v>35.660759443941</v>
       </c>
       <c r="M34" t="n">
-        <v>260.0540801966768</v>
+        <v>35.660759443941</v>
       </c>
       <c r="N34" t="n">
-        <v>260.0540801966768</v>
+        <v>173.8295605137731</v>
       </c>
       <c r="O34" t="n">
-        <v>260.0540801966768</v>
+        <v>173.8295605137731</v>
       </c>
       <c r="P34" t="n">
-        <v>260.0540801966768</v>
+        <v>173.8295605137731</v>
       </c>
       <c r="Q34" t="n">
-        <v>260.0540801966768</v>
+        <v>260.0540801966774</v>
       </c>
       <c r="R34" t="n">
-        <v>260.0540801966768</v>
+        <v>260.0540801966774</v>
       </c>
       <c r="S34" t="n">
-        <v>238.7151064842371</v>
+        <v>238.7151064842376</v>
       </c>
       <c r="T34" t="n">
-        <v>229.1705629898353</v>
+        <v>229.1705629898358</v>
       </c>
       <c r="U34" t="n">
-        <v>154.0755159416532</v>
+        <v>154.0755159416535</v>
       </c>
       <c r="V34" t="n">
-        <v>122.9678848370222</v>
+        <v>122.9678848370225</v>
       </c>
       <c r="W34" t="n">
-        <v>46.20197908099187</v>
+        <v>46.20197908099205</v>
       </c>
       <c r="X34" t="n">
-        <v>38.51814573010576</v>
+        <v>38.51814573010586</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.66075944394098</v>
+        <v>35.660759443941</v>
       </c>
     </row>
     <row r="35">
@@ -6911,58 +6911,58 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0190675361092</v>
+        <v>623.0190675361097</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0833815513515</v>
+        <v>544.083381551352</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7066225756359</v>
+        <v>477.7066225756364</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2826389338506</v>
+        <v>377.2826389338511</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8179102634017</v>
+        <v>244.8179102634022</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55628934786677</v>
+        <v>96.55628934786678</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I35" t="n">
-        <v>51.57576979998704</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J35" t="n">
-        <v>51.57576979998704</v>
+        <v>214.1616385483603</v>
       </c>
       <c r="K35" t="n">
-        <v>309.4319710763154</v>
+        <v>214.1616385483603</v>
       </c>
       <c r="L35" t="n">
-        <v>356.1528135570755</v>
+        <v>260.8824810291204</v>
       </c>
       <c r="M35" t="n">
-        <v>437.0147126440228</v>
+        <v>518.7386823054489</v>
       </c>
       <c r="N35" t="n">
-        <v>512.3426057797151</v>
+        <v>594.0665754411414</v>
       </c>
       <c r="O35" t="n">
-        <v>546.5632404723829</v>
+        <v>851.9227767174698</v>
       </c>
       <c r="P35" t="n">
-        <v>670.0297874835833</v>
+        <v>1020.153696984132</v>
       </c>
       <c r="Q35" t="n">
-        <v>850.5537443902416</v>
+        <v>1020.153696984132</v>
       </c>
       <c r="R35" t="n">
-        <v>926.9595910354045</v>
+        <v>1020.153696984132</v>
       </c>
       <c r="S35" t="n">
-        <v>971.0563429962468</v>
+        <v>1020.153696984132</v>
       </c>
       <c r="T35" t="n">
         <v>1020.153696984132</v>
@@ -6971,16 +6971,16 @@
         <v>1041.843237480115</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5294845984138</v>
+        <v>992.5294845984142</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0271658413449</v>
+        <v>926.0271658413453</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4175233782768</v>
+        <v>837.4175233782772</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0777262447604</v>
+        <v>726.0777262447608</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>371.7022508629921</v>
+        <v>215.8545897077066</v>
       </c>
       <c r="C36" t="n">
-        <v>182.2899765959558</v>
+        <v>26.44231544067028</v>
       </c>
       <c r="D36" t="n">
-        <v>182.2899765959558</v>
+        <v>26.44231544067028</v>
       </c>
       <c r="E36" t="n">
-        <v>182.2899765959558</v>
+        <v>26.44231544067028</v>
       </c>
       <c r="F36" t="n">
-        <v>182.2899765959558</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="G36" t="n">
-        <v>182.2899765959558</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="H36" t="n">
-        <v>182.2899765959558</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I36" t="n">
-        <v>73.84208735960492</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="K36" t="n">
-        <v>58.80019076548266</v>
+        <v>58.80019076548268</v>
       </c>
       <c r="L36" t="n">
         <v>176.1331098938568</v>
@@ -7029,37 +7029,37 @@
         <v>562.7147329086214</v>
       </c>
       <c r="O36" t="n">
-        <v>694.4156725276557</v>
+        <v>694.4156725276558</v>
       </c>
       <c r="P36" t="n">
-        <v>778.0407857857556</v>
+        <v>778.0407857857557</v>
       </c>
       <c r="Q36" t="n">
-        <v>771.1019414684212</v>
+        <v>771.1019414684213</v>
       </c>
       <c r="R36" t="n">
-        <v>771.1019414684212</v>
+        <v>635.0213346107671</v>
       </c>
       <c r="S36" t="n">
-        <v>771.1019414684212</v>
+        <v>441.4952827723789</v>
       </c>
       <c r="T36" t="n">
-        <v>771.1019414684212</v>
+        <v>441.4952827723789</v>
       </c>
       <c r="U36" t="n">
-        <v>614.781968959358</v>
+        <v>441.4952827723789</v>
       </c>
       <c r="V36" t="n">
-        <v>371.7022508629921</v>
+        <v>441.4952827723789</v>
       </c>
       <c r="W36" t="n">
-        <v>371.7022508629921</v>
+        <v>441.4952827723789</v>
       </c>
       <c r="X36" t="n">
-        <v>371.7022508629921</v>
+        <v>441.4952827723789</v>
       </c>
       <c r="Y36" t="n">
-        <v>371.7022508629921</v>
+        <v>215.8545897077066</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="C37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="D37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="E37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="F37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="G37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="H37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="K37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="L37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="M37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="N37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27276256078068</v>
+        <v>39.27276256078069</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27276256078068</v>
+        <v>39.27276256078069</v>
       </c>
       <c r="W37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="X37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
     </row>
     <row r="38">
@@ -7148,61 +7148,61 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.01906753611</v>
+        <v>623.0190675361102</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0833815513523</v>
+        <v>544.0833815513525</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7066225756365</v>
+        <v>477.7066225756368</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2826389338511</v>
+        <v>377.2826389338515</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8179102634017</v>
+        <v>244.8179102634022</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55628934786684</v>
+        <v>96.55628934786678</v>
       </c>
       <c r="H38" t="n">
         <v>20.8368647496023</v>
       </c>
       <c r="I38" t="n">
-        <v>51.57576979998699</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J38" t="n">
-        <v>51.57576979998699</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="K38" t="n">
-        <v>51.57576979998699</v>
+        <v>278.6930660259308</v>
       </c>
       <c r="L38" t="n">
-        <v>98.2966122807471</v>
+        <v>536.5492673022593</v>
       </c>
       <c r="M38" t="n">
-        <v>179.1585113676944</v>
+        <v>794.4054685785877</v>
       </c>
       <c r="N38" t="n">
-        <v>254.4864045033867</v>
+        <v>869.7333617142801</v>
       </c>
       <c r="O38" t="n">
-        <v>508.8263694861831</v>
+        <v>921.3406388741098</v>
       </c>
       <c r="P38" t="n">
-        <v>763.2238934323112</v>
+        <v>921.3406388741098</v>
       </c>
       <c r="Q38" t="n">
-        <v>943.7478503389694</v>
+        <v>921.3406388741098</v>
       </c>
       <c r="R38" t="n">
-        <v>1020.153696984132</v>
+        <v>997.7464855192727</v>
       </c>
       <c r="S38" t="n">
-        <v>1020.153696984132</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="T38" t="n">
-        <v>1020.153696984132</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="U38" t="n">
         <v>1041.843237480115</v>
@@ -7214,10 +7214,10 @@
         <v>926.0271658413458</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4175233782776</v>
+        <v>837.4175233782777</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0777262447612</v>
+        <v>726.0777262447614</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>592.5660885414861</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="C39" t="n">
-        <v>403.1538142744498</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="D39" t="n">
-        <v>242.3736980354816</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="E39" t="n">
-        <v>242.3736980354816</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="F39" t="n">
-        <v>81.94598175272566</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="G39" t="n">
         <v>20.8368647496023</v>
@@ -7254,7 +7254,7 @@
         <v>20.8368647496023</v>
       </c>
       <c r="K39" t="n">
-        <v>58.80019076548267</v>
+        <v>58.80019076548268</v>
       </c>
       <c r="L39" t="n">
         <v>176.1331098938568</v>
@@ -7266,37 +7266,37 @@
         <v>562.7147329086214</v>
       </c>
       <c r="O39" t="n">
-        <v>694.4156725276557</v>
+        <v>694.4156725276558</v>
       </c>
       <c r="P39" t="n">
-        <v>778.0407857857556</v>
+        <v>778.0407857857557</v>
       </c>
       <c r="Q39" t="n">
-        <v>771.1019414684212</v>
+        <v>778.0407857857557</v>
       </c>
       <c r="R39" t="n">
-        <v>771.1019414684212</v>
+        <v>778.0407857857557</v>
       </c>
       <c r="S39" t="n">
-        <v>771.1019414684212</v>
+        <v>778.0407857857557</v>
       </c>
       <c r="T39" t="n">
-        <v>771.1019414684212</v>
+        <v>661.9604301562069</v>
       </c>
       <c r="U39" t="n">
-        <v>771.1019414684212</v>
+        <v>661.9604301562069</v>
       </c>
       <c r="V39" t="n">
-        <v>771.1019414684212</v>
+        <v>418.880712059841</v>
       </c>
       <c r="W39" t="n">
-        <v>771.1019414684212</v>
+        <v>418.880712059841</v>
       </c>
       <c r="X39" t="n">
-        <v>771.1019414684212</v>
+        <v>199.3727176765374</v>
       </c>
       <c r="Y39" t="n">
-        <v>771.1019414684212</v>
+        <v>199.3727176765374</v>
       </c>
     </row>
     <row r="40">
@@ -7336,37 +7336,37 @@
         <v>20.8368647496023</v>
       </c>
       <c r="L40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="M40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="N40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="O40" t="n">
-        <v>56.03780166411099</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03780166411099</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03780166411099</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03780166411099</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03780166411099</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03780166411099</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27276256078075</v>
+        <v>39.27276256078069</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27276256078075</v>
+        <v>39.27276256078069</v>
       </c>
       <c r="W40" t="n">
         <v>20.8368647496023</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.426354275316</v>
+        <v>818.4263542753165</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1276389564242</v>
+        <v>708.1276389564247</v>
       </c>
       <c r="D41" t="n">
-        <v>610.3878506465746</v>
+        <v>610.3878506465751</v>
       </c>
       <c r="E41" t="n">
-        <v>478.6008376706552</v>
+        <v>478.6008376706557</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7730796660722</v>
+        <v>314.7730796660726</v>
       </c>
       <c r="G41" t="n">
         <v>135.1484294164039</v>
@@ -7412,28 +7412,28 @@
         <v>190.6518442323786</v>
       </c>
       <c r="K41" t="n">
-        <v>422.5915955308618</v>
+        <v>422.5915955308619</v>
       </c>
       <c r="L41" t="n">
-        <v>707.9121095349432</v>
+        <v>469.312438011622</v>
       </c>
       <c r="M41" t="n">
-        <v>1027.373680145212</v>
+        <v>788.7740086218905</v>
       </c>
       <c r="N41" t="n">
-        <v>1102.701573280904</v>
+        <v>864.1019017575829</v>
       </c>
       <c r="O41" t="n">
-        <v>1375.521879496893</v>
+        <v>1136.922207973572</v>
       </c>
       <c r="P41" t="n">
-        <v>1403.298774200268</v>
+        <v>1194.488933838759</v>
       </c>
       <c r="Q41" t="n">
-        <v>1403.298774200268</v>
+        <v>1344.273985695032</v>
       </c>
       <c r="R41" t="n">
-        <v>1403.298774200268</v>
+        <v>1389.940927289811</v>
       </c>
       <c r="S41" t="n">
         <v>1403.298774200268</v>
@@ -7442,7 +7442,7 @@
         <v>1403.298774200268</v>
       </c>
       <c r="U41" t="n">
-        <v>1394.065670889991</v>
+        <v>1394.065670889992</v>
       </c>
       <c r="V41" t="n">
         <v>1313.388888674157</v>
@@ -7454,7 +7454,7 @@
         <v>1095.550868785752</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.8480423181012</v>
+        <v>952.8480423181016</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>489.0624760350177</v>
+        <v>96.26292994382158</v>
       </c>
       <c r="C42" t="n">
-        <v>489.0624760350177</v>
+        <v>96.26292994382158</v>
       </c>
       <c r="D42" t="n">
-        <v>489.0624760350177</v>
+        <v>96.26292994382158</v>
       </c>
       <c r="E42" t="n">
-        <v>315.4992721564321</v>
+        <v>96.26292994382158</v>
       </c>
       <c r="F42" t="n">
-        <v>155.0715558736762</v>
+        <v>96.26292994382158</v>
       </c>
       <c r="G42" t="n">
-        <v>155.0715558736762</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="H42" t="n">
         <v>28.06597548400536</v>
@@ -7491,10 +7491,10 @@
         <v>28.06597548400536</v>
       </c>
       <c r="K42" t="n">
-        <v>66.02930149988573</v>
+        <v>66.02930149988575</v>
       </c>
       <c r="L42" t="n">
-        <v>183.3622206282598</v>
+        <v>183.3622206282599</v>
       </c>
       <c r="M42" t="n">
         <v>365.0388672322653</v>
@@ -7503,37 +7503,37 @@
         <v>569.9438436430245</v>
       </c>
       <c r="O42" t="n">
-        <v>701.6447832620588</v>
+        <v>701.6447832620589</v>
       </c>
       <c r="P42" t="n">
-        <v>785.2698965201587</v>
+        <v>785.2698965201588</v>
       </c>
       <c r="Q42" t="n">
-        <v>785.2698965201587</v>
+        <v>778.3310522028244</v>
       </c>
       <c r="R42" t="n">
-        <v>785.2698965201587</v>
+        <v>778.3310522028244</v>
       </c>
       <c r="S42" t="n">
-        <v>785.2698965201587</v>
+        <v>584.8050003644362</v>
       </c>
       <c r="T42" t="n">
-        <v>785.2698965201587</v>
+        <v>584.8050003644362</v>
       </c>
       <c r="U42" t="n">
-        <v>545.6455838970388</v>
+        <v>584.8050003644362</v>
       </c>
       <c r="V42" t="n">
-        <v>515.0168339759626</v>
+        <v>341.7252822680703</v>
       </c>
       <c r="W42" t="n">
-        <v>489.0624760350177</v>
+        <v>315.7709243271252</v>
       </c>
       <c r="X42" t="n">
-        <v>489.0624760350177</v>
+        <v>96.26292994382158</v>
       </c>
       <c r="Y42" t="n">
-        <v>489.0624760350177</v>
+        <v>96.26292994382158</v>
       </c>
     </row>
     <row r="43">
@@ -7570,31 +7570,31 @@
         <v>28.06597548400536</v>
       </c>
       <c r="K43" t="n">
-        <v>28.06597548400536</v>
+        <v>107.5418873023911</v>
       </c>
       <c r="L43" t="n">
-        <v>28.06597548400536</v>
+        <v>107.5418873023911</v>
       </c>
       <c r="M43" t="n">
-        <v>28.06597548400536</v>
+        <v>107.5418873023911</v>
       </c>
       <c r="N43" t="n">
-        <v>28.06597548400536</v>
+        <v>107.5418873023911</v>
       </c>
       <c r="O43" t="n">
-        <v>28.06597548400536</v>
+        <v>107.5418873023911</v>
       </c>
       <c r="P43" t="n">
-        <v>130.1336235606951</v>
+        <v>107.5418873023911</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.1336235606951</v>
+        <v>107.5418873023911</v>
       </c>
       <c r="R43" t="n">
-        <v>130.1336235606951</v>
+        <v>107.5418873023911</v>
       </c>
       <c r="S43" t="n">
-        <v>130.1336235606951</v>
+        <v>113.0578949031936</v>
       </c>
       <c r="T43" t="n">
         <v>130.1336235606951</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.4263542753171</v>
+        <v>818.426354275318</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1276389564252</v>
+        <v>708.1276389564262</v>
       </c>
       <c r="D44" t="n">
-        <v>610.3878506465753</v>
+        <v>610.3878506465762</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6008376706557</v>
+        <v>478.6008376706565</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7730796660724</v>
+        <v>314.7730796660731</v>
       </c>
       <c r="G44" t="n">
         <v>135.1484294164039</v>
       </c>
       <c r="H44" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="I44" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="J44" t="n">
-        <v>28.06597548400536</v>
+        <v>83.58473970705847</v>
       </c>
       <c r="K44" t="n">
-        <v>28.06597548400536</v>
+        <v>315.5244910055418</v>
       </c>
       <c r="L44" t="n">
-        <v>313.3864894880867</v>
+        <v>362.2453334863019</v>
       </c>
       <c r="M44" t="n">
-        <v>411.3909367252911</v>
+        <v>681.7069040965705</v>
       </c>
       <c r="N44" t="n">
-        <v>725.3185013843047</v>
+        <v>995.6344687555841</v>
       </c>
       <c r="O44" t="n">
-        <v>998.1388076002936</v>
+        <v>1029.855103448252</v>
       </c>
       <c r="P44" t="n">
-        <v>1221.797426496037</v>
+        <v>1253.513722343995</v>
       </c>
       <c r="Q44" t="n">
-        <v>1371.58247835231</v>
+        <v>1403.298774200269</v>
       </c>
       <c r="R44" t="n">
-        <v>1371.58247835231</v>
+        <v>1403.298774200269</v>
       </c>
       <c r="S44" t="n">
-        <v>1384.940325262768</v>
+        <v>1403.298774200269</v>
       </c>
       <c r="T44" t="n">
-        <v>1403.298774200268</v>
+        <v>1403.298774200269</v>
       </c>
       <c r="U44" t="n">
-        <v>1394.065670889992</v>
+        <v>1394.065670889993</v>
       </c>
       <c r="V44" t="n">
-        <v>1313.388888674157</v>
+        <v>1313.388888674158</v>
       </c>
       <c r="W44" t="n">
-        <v>1215.523540582955</v>
+        <v>1215.523540582956</v>
       </c>
       <c r="X44" t="n">
-        <v>1095.550868785753</v>
+        <v>1095.550868785754</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.8480423181022</v>
+        <v>952.8480423181031</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>362.4092956015592</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="C45" t="n">
-        <v>362.4092956015592</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="D45" t="n">
-        <v>201.6291793625909</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="E45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="F45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="G45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="H45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="J45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="K45" t="n">
-        <v>66.02930149988573</v>
+        <v>66.02930149988575</v>
       </c>
       <c r="L45" t="n">
-        <v>183.3622206282598</v>
+        <v>183.3622206282599</v>
       </c>
       <c r="M45" t="n">
         <v>365.0388672322653</v>
@@ -7740,37 +7740,37 @@
         <v>569.9438436430245</v>
       </c>
       <c r="O45" t="n">
-        <v>701.6447832620588</v>
+        <v>701.6447832620589</v>
       </c>
       <c r="P45" t="n">
-        <v>785.2698965201587</v>
+        <v>785.2698965201588</v>
       </c>
       <c r="Q45" t="n">
-        <v>785.2698965201587</v>
+        <v>778.3310522028244</v>
       </c>
       <c r="R45" t="n">
-        <v>785.2698965201587</v>
+        <v>642.2504453451702</v>
       </c>
       <c r="S45" t="n">
-        <v>785.2698965201587</v>
+        <v>490.6706748845069</v>
       </c>
       <c r="T45" t="n">
-        <v>785.2698965201587</v>
+        <v>273.5283278082541</v>
       </c>
       <c r="U45" t="n">
-        <v>785.2698965201587</v>
+        <v>273.5283278082541</v>
       </c>
       <c r="V45" t="n">
-        <v>785.2698965201587</v>
+        <v>273.5283278082541</v>
       </c>
       <c r="W45" t="n">
-        <v>515.87132725045</v>
+        <v>247.573969867309</v>
       </c>
       <c r="X45" t="n">
-        <v>515.87132725045</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="Y45" t="n">
-        <v>515.87132725045</v>
+        <v>28.06597548400538</v>
       </c>
     </row>
     <row r="46">
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="C46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="D46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="E46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="F46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="G46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="H46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="I46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="J46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="K46" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="L46" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="M46" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="N46" t="n">
         <v>130.1336235606951</v>
@@ -7843,13 +7843,13 @@
         <v>77.86490262931781</v>
       </c>
       <c r="W46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="X46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
     </row>
   </sheetData>
@@ -8538,16 +8538,16 @@
         <v>169.0363433314465</v>
       </c>
       <c r="M9" t="n">
-        <v>173.4035213848624</v>
+        <v>176.6027710248758</v>
       </c>
       <c r="N9" t="n">
-        <v>163.3068757699624</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O9" t="n">
         <v>177.1666678622357</v>
       </c>
       <c r="P9" t="n">
-        <v>166.6480266854964</v>
+        <v>166.5187640737787</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -8778,7 +8778,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1370682466384</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.9389762247655</v>
+        <v>195.9389762247654</v>
       </c>
       <c r="C11" t="n">
-        <v>172.057233228111</v>
+        <v>172.0572332281109</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6238954891595</v>
+        <v>159.6238954891594</v>
       </c>
       <c r="E11" t="n">
         <v>193.3306479085683</v>
       </c>
       <c r="F11" t="n">
-        <v>36.5530521676985</v>
+        <v>36.55305216769844</v>
       </c>
       <c r="G11" t="n">
-        <v>52.19197549033356</v>
+        <v>240.6899088095807</v>
       </c>
       <c r="H11" t="n">
-        <v>84.51405002277275</v>
+        <v>168.8731344554827</v>
       </c>
       <c r="I11" t="n">
-        <v>62.86150506240822</v>
+        <v>62.86150506240816</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.36873040538029</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00227733958192</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>142.7315194560842</v>
+        <v>74.14249877996616</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6344501416383</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.1373032653821</v>
+        <v>204.137303265382</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.9389762247655</v>
+        <v>195.9389762247654</v>
       </c>
       <c r="C14" t="n">
-        <v>172.057233228111</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6238954891595</v>
+        <v>123.9629051272852</v>
       </c>
       <c r="E14" t="n">
-        <v>4.832714589321199</v>
+        <v>193.3306479085682</v>
       </c>
       <c r="F14" t="n">
-        <v>36.55305216769852</v>
+        <v>225.0509854869456</v>
       </c>
       <c r="G14" t="n">
-        <v>52.19197549033359</v>
+        <v>240.6899088095806</v>
       </c>
       <c r="H14" t="n">
-        <v>168.8731344554828</v>
+        <v>168.8731344554827</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.86150506240813</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.73328122929904</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.31761724675145</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00227733958195</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>142.7315194560842</v>
+        <v>142.7315194560841</v>
       </c>
       <c r="W14" t="n">
-        <v>105.9494554728948</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>181.6344501416383</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.1373032653821</v>
+        <v>204.137303265382</v>
       </c>
     </row>
     <row r="15">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>801938.326696811</v>
+        <v>801938.3266968112</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>801938.326696811</v>
+        <v>801938.3266968112</v>
       </c>
     </row>
     <row r="7">
@@ -26320,7 +26320,7 @@
         <v>639769.9538963835</v>
       </c>
       <c r="E2" t="n">
-        <v>550808.1858431225</v>
+        <v>550808.1858431222</v>
       </c>
       <c r="F2" t="n">
         <v>550808.1858431221</v>
@@ -26329,28 +26329,28 @@
         <v>640695.9479224384</v>
       </c>
       <c r="H2" t="n">
-        <v>640695.9479224388</v>
+        <v>640695.9479224386</v>
       </c>
       <c r="I2" t="n">
+        <v>640695.9479224386</v>
+      </c>
+      <c r="J2" t="n">
+        <v>640695.947922439</v>
+      </c>
+      <c r="K2" t="n">
+        <v>640695.947922439</v>
+      </c>
+      <c r="L2" t="n">
         <v>640695.9479224384</v>
       </c>
-      <c r="J2" t="n">
-        <v>640695.9479224392</v>
-      </c>
-      <c r="K2" t="n">
-        <v>640695.9479224391</v>
-      </c>
-      <c r="L2" t="n">
-        <v>640695.9479224386</v>
-      </c>
       <c r="M2" t="n">
-        <v>640695.9479224383</v>
+        <v>640695.9479224385</v>
       </c>
       <c r="N2" t="n">
-        <v>640695.9479224383</v>
+        <v>640695.9479224382</v>
       </c>
       <c r="O2" t="n">
-        <v>640695.9479224383</v>
+        <v>640695.9479224385</v>
       </c>
       <c r="P2" t="n">
         <v>640695.9479224384</v>
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>993.7829156774393</v>
+        <v>993.7829156773863</v>
       </c>
       <c r="E3" t="n">
         <v>279126.1151787142</v>
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95439.52541913329</v>
+        <v>95439.52541913325</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143496.2830068792</v>
+        <v>143496.2830068794</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96101.69331262473</v>
+        <v>96101.69331262459</v>
       </c>
       <c r="M3" t="n">
-        <v>46197.36629232275</v>
+        <v>46197.36629232277</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72254.91485924373</v>
+        <v>72254.91485924381</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>403603.2856239664</v>
       </c>
       <c r="E4" t="n">
-        <v>290416.1225000671</v>
+        <v>290416.1225000672</v>
       </c>
       <c r="F4" t="n">
-        <v>290416.1225000671</v>
+        <v>290416.1225000672</v>
       </c>
       <c r="G4" t="n">
         <v>361023.990543289</v>
@@ -26439,13 +26439,13 @@
         <v>361023.990543289</v>
       </c>
       <c r="J4" t="n">
-        <v>361792.602703913</v>
+        <v>361792.6027039131</v>
       </c>
       <c r="K4" t="n">
-        <v>361792.602703913</v>
+        <v>361792.6027039131</v>
       </c>
       <c r="L4" t="n">
-        <v>361777.8127365345</v>
+        <v>361777.8127365344</v>
       </c>
       <c r="M4" t="n">
         <v>360967.8753632159</v>
@@ -26479,7 +26479,7 @@
         <v>28642.95693774779</v>
       </c>
       <c r="F5" t="n">
-        <v>28642.95693774778</v>
+        <v>28642.9569377478</v>
       </c>
       <c r="G5" t="n">
         <v>38672.33876582418</v>
@@ -26491,7 +26491,7 @@
         <v>38672.33876582418</v>
       </c>
       <c r="J5" t="n">
-        <v>47449.6772201635</v>
+        <v>47449.67722016352</v>
       </c>
       <c r="K5" t="n">
         <v>47449.67722016352</v>
@@ -26500,16 +26500,16 @@
         <v>47324.7475828481</v>
       </c>
       <c r="M5" t="n">
-        <v>40913.2955986873</v>
+        <v>40913.29559868731</v>
       </c>
       <c r="N5" t="n">
-        <v>40913.2955986873</v>
+        <v>40913.29559868731</v>
       </c>
       <c r="O5" t="n">
         <v>43797.12782887323</v>
       </c>
       <c r="P5" t="n">
-        <v>43797.12782887323</v>
+        <v>43797.12782887324</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>201981.4765633379</v>
+        <v>201977.0101791327</v>
       </c>
       <c r="C6" t="n">
-        <v>201981.4765633379</v>
+        <v>201977.0101791327</v>
       </c>
       <c r="D6" t="n">
-        <v>201350.7709786269</v>
+        <v>201347.5778957784</v>
       </c>
       <c r="E6" t="n">
-        <v>-47377.00877340652</v>
+        <v>-47686.96657368055</v>
       </c>
       <c r="F6" t="n">
-        <v>231749.1064053072</v>
+        <v>231439.1486050336</v>
       </c>
       <c r="G6" t="n">
         <v>145560.093194192</v>
       </c>
       <c r="H6" t="n">
-        <v>240999.6186133257</v>
+        <v>240999.6186133254</v>
       </c>
       <c r="I6" t="n">
-        <v>240999.6186133252</v>
+        <v>240999.6186133254</v>
       </c>
       <c r="J6" t="n">
-        <v>87957.38499148343</v>
+        <v>87957.38499148295</v>
       </c>
       <c r="K6" t="n">
-        <v>231453.6679983626</v>
+        <v>231453.6679983624</v>
       </c>
       <c r="L6" t="n">
-        <v>135491.6942904314</v>
+        <v>135491.6942904313</v>
       </c>
       <c r="M6" t="n">
-        <v>192617.4106682123</v>
+        <v>192617.4106682125</v>
       </c>
       <c r="N6" t="n">
-        <v>238814.776960535</v>
+        <v>238814.7769605349</v>
       </c>
       <c r="O6" t="n">
-        <v>163288.9672073876</v>
+        <v>163288.9672073879</v>
       </c>
       <c r="P6" t="n">
         <v>235543.8820666316</v>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G2" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="H2" t="n">
         <v>297.4476709269844</v>
       </c>
       <c r="I2" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="J2" t="n">
         <v>213.484750524001</v>
@@ -26713,7 +26713,7 @@
         <v>213.484750524001</v>
       </c>
       <c r="L2" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="M2" t="n">
         <v>272.0591682562687</v>
@@ -26811,16 +26811,16 @@
         <v>188.4979333192472</v>
       </c>
       <c r="J4" t="n">
-        <v>448.9587426892758</v>
+        <v>448.958742689276</v>
       </c>
       <c r="K4" t="n">
         <v>448.9587426892759</v>
       </c>
       <c r="L4" t="n">
-        <v>445.7594930492623</v>
+        <v>445.7594930492625</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4608093700286</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="N4" t="n">
         <v>260.4608093700288</v>
@@ -26829,7 +26829,7 @@
         <v>350.824693550067</v>
       </c>
       <c r="P4" t="n">
-        <v>350.824693550067</v>
+        <v>350.8246935500672</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26926,25 +26926,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.18534375008431</v>
+        <v>94.18534375008448</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>120.1271166407809</v>
+        <v>120.1271166407807</v>
       </c>
       <c r="M2" t="n">
-        <v>57.74670786540344</v>
+        <v>57.74670786540347</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13594470929166</v>
+        <v>63.13594470929178</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3.199249640013647</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
         <v>185.2986836792337</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4608093700286</v>
+        <v>260.4608093700289</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.18534375008431</v>
+        <v>94.18534375008448</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.199249640013647</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="M4" t="n">
         <v>185.2986836792337</v>
@@ -27859,7 +27859,7 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E8" t="n">
-        <v>371.4789120616362</v>
+        <v>371.6088275148272</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27904,7 +27904,7 @@
         <v>236.785106778059</v>
       </c>
       <c r="T8" t="n">
-        <v>224.3762098531791</v>
+        <v>224.246294399988</v>
       </c>
       <c r="U8" t="n">
         <v>250.1830790232068</v>
@@ -27950,10 +27950,10 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I9" t="n">
-        <v>112.0379203647931</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J9" t="n">
-        <v>69.83566399273495</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27974,31 +27974,31 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>31.44843229210258</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R9" t="n">
-        <v>145.0317031582867</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
-        <v>195.63287444794</v>
+        <v>192.4336248079265</v>
       </c>
       <c r="T9" t="n">
         <v>215.8480604164874</v>
       </c>
       <c r="U9" t="n">
-        <v>237.2423862021824</v>
+        <v>234.0431365621689</v>
       </c>
       <c r="V9" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W9" t="n">
-        <v>266.7045835770116</v>
+        <v>263.5053339369981</v>
       </c>
       <c r="X9" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y9" t="n">
-        <v>223.3842861340256</v>
+        <v>220.5663870511017</v>
       </c>
     </row>
     <row r="10">
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="C11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="E11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="H11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="I11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="J11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="K11" t="n">
-        <v>178.1482641530678</v>
+        <v>51.67610449380394</v>
       </c>
       <c r="L11" t="n">
-        <v>80.1297675744507</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>106.8192473728357</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>112.4091523741033</v>
       </c>
       <c r="O11" t="n">
-        <v>153.9316356498858</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>15.09197235108876</v>
+        <v>15.09197235108875</v>
       </c>
       <c r="Q11" t="n">
-        <v>89.71173703742197</v>
+        <v>89.71173703742195</v>
       </c>
       <c r="R11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="S11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="12">
@@ -28166,10 +28166,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>50.0255642427246</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28187,7 +28187,7 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J12" t="n">
         <v>52.47517038390259</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.869455874161041</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S12" t="n">
-        <v>178.1482641530678</v>
+        <v>3.092858000757161</v>
       </c>
       <c r="T12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U12" t="n">
-        <v>178.1482641530678</v>
+        <v>48.73013617764147</v>
       </c>
       <c r="V12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W12" t="n">
-        <v>178.1482641530678</v>
+        <v>112.1410023177478</v>
       </c>
       <c r="X12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y12" t="n">
-        <v>34.88635281477846</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="13">
@@ -28248,73 +28248,73 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
-        <v>178.1482641530678</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>178.1482641530678</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>178.1482641530678</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G13" t="n">
-        <v>178.1482641530678</v>
+        <v>168.7007749271525</v>
       </c>
       <c r="H13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="I13" t="n">
-        <v>178.1482641530678</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J13" t="n">
-        <v>178.1482641530678</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K13" t="n">
-        <v>67.02998013918997</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="L13" t="n">
-        <v>32.15181624817888</v>
+        <v>32.15181624817887</v>
       </c>
       <c r="M13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="N13" t="n">
-        <v>16.52015736928135</v>
+        <v>71.00011518173118</v>
       </c>
       <c r="O13" t="n">
-        <v>37.4788839977768</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="P13" t="n">
-        <v>152.0346807870173</v>
+        <v>58.47859890024887</v>
       </c>
       <c r="Q13" t="n">
-        <v>178.1482641530678</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="S13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="14">
@@ -28324,40 +28324,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="C14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="E14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="H14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="I14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="J14" t="n">
-        <v>160.7168484597796</v>
+        <v>76.78161896459405</v>
       </c>
       <c r="K14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>106.8192473728357</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -28366,34 +28366,34 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>178.1482641530678</v>
+        <v>155.2642462754171</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="R14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="S14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="15">
@@ -28406,7 +28406,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R15" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>108.6760250896804</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T15" t="n">
-        <v>26.47299028624312</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U15" t="n">
-        <v>178.1482641530678</v>
+        <v>48.73013617764147</v>
       </c>
       <c r="V15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X15" t="n">
-        <v>28.81498112022345</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.1482641530678</v>
+        <v>64.93594108035359</v>
       </c>
     </row>
     <row r="16">
@@ -28494,64 +28494,64 @@
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G16" t="n">
-        <v>168.7007749271525</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="H16" t="n">
         <v>165.8243976546666</v>
       </c>
       <c r="I16" t="n">
-        <v>164.852968067965</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="J16" t="n">
-        <v>178.1482641530678</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K16" t="n">
         <v>67.02998013918997</v>
       </c>
       <c r="L16" t="n">
-        <v>173.1649829052221</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="M16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="N16" t="n">
-        <v>16.52015736928135</v>
+        <v>115.4411344440152</v>
       </c>
       <c r="O16" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777679</v>
       </c>
       <c r="P16" t="n">
-        <v>178.1482641530678</v>
+        <v>58.47859890024887</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.2169859636892</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="R16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="S16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="17">
@@ -28561,40 +28561,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="C17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="D17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="E17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="F17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="G17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="H17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="I17" t="n">
-        <v>297.4476709269844</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J17" t="n">
-        <v>76.78161896459406</v>
+        <v>265.2795522838412</v>
       </c>
       <c r="K17" t="n">
-        <v>6.727192146300972</v>
+        <v>6.727192146300958</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>54.87146425391757</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28603,34 +28603,34 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.09197235108876</v>
+        <v>203.5899056703359</v>
       </c>
       <c r="Q17" t="n">
-        <v>245.347234870837</v>
+        <v>89.71173703742195</v>
       </c>
       <c r="R17" t="n">
-        <v>297.4476709269844</v>
+        <v>194.8815453823668</v>
       </c>
       <c r="S17" t="n">
-        <v>297.4476709269844</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="U17" t="n">
-        <v>297.4476709269844</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="W17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="X17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="Y17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
     </row>
     <row r="18">
@@ -28643,7 +28643,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>21.489171856773</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
@@ -28664,7 +28664,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,22 +28685,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.869455874161041</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S18" t="n">
-        <v>191.5907913200043</v>
+        <v>3.092858000757156</v>
       </c>
       <c r="T18" t="n">
-        <v>26.47299028624312</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U18" t="n">
-        <v>48.73013617764147</v>
+        <v>48.73013617764146</v>
       </c>
       <c r="V18" t="n">
-        <v>73.31697910154242</v>
+        <v>52.15098759615509</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -28749,16 +28749,16 @@
         <v>67.02998013918997</v>
       </c>
       <c r="L19" t="n">
-        <v>32.15181624817888</v>
+        <v>32.15181624817887</v>
       </c>
       <c r="M19" t="n">
-        <v>25.21686539889345</v>
+        <v>25.21686539889344</v>
       </c>
       <c r="N19" t="n">
-        <v>16.52015736928135</v>
+        <v>16.52015736928134</v>
       </c>
       <c r="O19" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777679</v>
       </c>
       <c r="P19" t="n">
         <v>58.47859890024887</v>
@@ -28822,10 +28822,10 @@
         <v>241.009769215476</v>
       </c>
       <c r="J20" t="n">
-        <v>170.2877615588066</v>
+        <v>76.78161896459405</v>
       </c>
       <c r="K20" t="n">
-        <v>6.727192146300972</v>
+        <v>144.6693989972714</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28834,16 +28834,16 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>112.4091523741033</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>153.9316356498858</v>
       </c>
       <c r="P20" t="n">
-        <v>15.09197235108876</v>
+        <v>15.09197235108875</v>
       </c>
       <c r="Q20" t="n">
-        <v>278.2096703566691</v>
+        <v>89.71173703742195</v>
       </c>
       <c r="R20" t="n">
         <v>297.4476709269844</v>
@@ -28852,10 +28852,10 @@
         <v>227.5169945584482</v>
       </c>
       <c r="T20" t="n">
-        <v>297.4476709269844</v>
+        <v>222.4658813998192</v>
       </c>
       <c r="U20" t="n">
-        <v>297.4476709269844</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V20" t="n">
         <v>297.4476709269844</v>
@@ -28901,7 +28901,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28925,25 +28925,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>3.092858000757161</v>
       </c>
       <c r="T21" t="n">
-        <v>214.9709236054903</v>
+        <v>26.47299028624312</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2280694968886</v>
+        <v>212.7883464925345</v>
       </c>
       <c r="V21" t="n">
-        <v>133.964567505873</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
         <v>78.20665025776444</v>
       </c>
       <c r="X21" t="n">
-        <v>28.81498112022345</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -28986,16 +28986,16 @@
         <v>67.02998013918997</v>
       </c>
       <c r="L22" t="n">
-        <v>32.15181624817888</v>
+        <v>32.15181624817887</v>
       </c>
       <c r="M22" t="n">
-        <v>25.21686539889345</v>
+        <v>25.21686539889344</v>
       </c>
       <c r="N22" t="n">
-        <v>16.52015736928135</v>
+        <v>16.52015736928134</v>
       </c>
       <c r="O22" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777679</v>
       </c>
       <c r="P22" t="n">
         <v>58.47859890024887</v>
@@ -29035,76 +29035,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="C23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="D23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="E23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="F23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="G23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="H23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="I23" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="J23" t="n">
-        <v>214.7238258155644</v>
+        <v>76.78161896459405</v>
       </c>
       <c r="K23" t="n">
-        <v>6.727192146300972</v>
+        <v>6.727192146300958</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>112.4091523741034</v>
+        <v>112.4091523741033</v>
       </c>
       <c r="O23" t="n">
-        <v>153.9316356498858</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>15.09197235108876</v>
+        <v>15.09197235108875</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.71173703742197</v>
+        <v>123.0526105987459</v>
       </c>
       <c r="R23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="S23" t="n">
-        <v>227.5169945584482</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="T23" t="n">
         <v>222.4658813998192</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1505414926498</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="V23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="W23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="X23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="Y23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
     </row>
     <row r="24">
@@ -29138,7 +29138,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29165,25 +29165,25 @@
         <v>134.7198007890777</v>
       </c>
       <c r="S24" t="n">
-        <v>191.5907913200043</v>
+        <v>32.43126752657247</v>
       </c>
       <c r="T24" t="n">
-        <v>26.47299028624312</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U24" t="n">
-        <v>130.5437160873595</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V24" t="n">
         <v>52.15098759615509</v>
       </c>
       <c r="W24" t="n">
-        <v>78.20665025776444</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>28.81498112022345</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>34.88635281477846</v>
       </c>
     </row>
     <row r="25">
@@ -29223,16 +29223,16 @@
         <v>67.02998013918997</v>
       </c>
       <c r="L25" t="n">
-        <v>32.15181624817888</v>
+        <v>32.15181624817887</v>
       </c>
       <c r="M25" t="n">
-        <v>25.21686539889345</v>
+        <v>25.21686539889344</v>
       </c>
       <c r="N25" t="n">
-        <v>16.52015736928135</v>
+        <v>16.52015736928134</v>
       </c>
       <c r="O25" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777679</v>
       </c>
       <c r="P25" t="n">
         <v>58.47859890024887</v>
@@ -29354,16 +29354,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>47.05079075916385</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>148.7446044746268</v>
@@ -29396,16 +29396,16 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.869455874161041</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T27" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>213.484750524001</v>
@@ -29414,13 +29414,13 @@
         <v>213.484750524001</v>
       </c>
       <c r="W27" t="n">
-        <v>213.484750524001</v>
+        <v>151.7528214337328</v>
       </c>
       <c r="X27" t="n">
         <v>213.484750524001</v>
       </c>
       <c r="Y27" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29448,31 +29448,31 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H28" t="n">
+        <v>165.8243976546666</v>
+      </c>
+      <c r="I28" t="n">
+        <v>164.852968067965</v>
+      </c>
+      <c r="J28" t="n">
+        <v>120.239607582909</v>
+      </c>
+      <c r="K28" t="n">
+        <v>67.02998013918997</v>
+      </c>
+      <c r="L28" t="n">
+        <v>32.15181624817887</v>
+      </c>
+      <c r="M28" t="n">
+        <v>25.21686539889344</v>
+      </c>
+      <c r="N28" t="n">
+        <v>94.0855358070109</v>
+      </c>
+      <c r="O28" t="n">
+        <v>37.47888399777679</v>
+      </c>
+      <c r="P28" t="n">
         <v>213.484750524001</v>
-      </c>
-      <c r="I28" t="n">
-        <v>213.484750524001</v>
-      </c>
-      <c r="J28" t="n">
-        <v>213.484750524001</v>
-      </c>
-      <c r="K28" t="n">
-        <v>110.0642319342098</v>
-      </c>
-      <c r="L28" t="n">
-        <v>32.15181624817888</v>
-      </c>
-      <c r="M28" t="n">
-        <v>25.21686539889345</v>
-      </c>
-      <c r="N28" t="n">
-        <v>16.52015736928135</v>
-      </c>
-      <c r="O28" t="n">
-        <v>37.4788839977768</v>
-      </c>
-      <c r="P28" t="n">
-        <v>58.47859890024887</v>
       </c>
       <c r="Q28" t="n">
         <v>127.2169859636892</v>
@@ -29591,7 +29591,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>132.9415702454859</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29603,7 +29603,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H30" t="n">
         <v>125.7355245857741</v>
@@ -29633,10 +29633,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.869455874161041</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R30" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>191.5907913200043</v>
@@ -29648,16 +29648,16 @@
         <v>213.484750524001</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>213.484750524001</v>
       </c>
       <c r="W30" t="n">
         <v>213.484750524001</v>
       </c>
       <c r="X30" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>213.484750524001</v>
+        <v>144.8833655595716</v>
       </c>
     </row>
     <row r="31">
@@ -29697,22 +29697,22 @@
         <v>67.02998013918997</v>
       </c>
       <c r="L31" t="n">
-        <v>32.15181624817888</v>
+        <v>178.4555817493488</v>
       </c>
       <c r="M31" t="n">
-        <v>81.78252893415122</v>
+        <v>25.21686539889344</v>
       </c>
       <c r="N31" t="n">
-        <v>16.52015736928135</v>
+        <v>16.52015736928134</v>
       </c>
       <c r="O31" t="n">
-        <v>213.484750524001</v>
+        <v>37.47888399777679</v>
       </c>
       <c r="P31" t="n">
         <v>58.47859890024887</v>
       </c>
       <c r="Q31" t="n">
-        <v>127.2169859636892</v>
+        <v>213.484750524001</v>
       </c>
       <c r="R31" t="n">
         <v>203.4299611556341</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="C32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="D32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="E32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="F32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="G32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="H32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="I32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="J32" t="n">
-        <v>214.3124603908653</v>
+        <v>194.1953356407513</v>
       </c>
       <c r="K32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="L32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="M32" t="n">
-        <v>194.1953356407501</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="N32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="O32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="P32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="Q32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="R32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="S32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="T32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="U32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="V32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="W32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="X32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="Y32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
     </row>
     <row r="33">
@@ -29825,19 +29825,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>148.7446044746268</v>
@@ -29870,31 +29870,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.869455874161041</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R33" t="n">
-        <v>134.7198007890777</v>
+        <v>104.8382699657797</v>
       </c>
       <c r="S33" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T33" t="n">
-        <v>97.22467687226467</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>214.3124603908653</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="W33" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="X33" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="Y33" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
     </row>
     <row r="34">
@@ -29922,58 +29922,58 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H34" t="n">
-        <v>195.7423450323494</v>
+        <v>165.8243976546666</v>
       </c>
       <c r="I34" t="n">
-        <v>214.3124603908653</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J34" t="n">
         <v>120.239607582909</v>
       </c>
       <c r="K34" t="n">
-        <v>214.3124603908653</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L34" t="n">
-        <v>32.15181624817888</v>
+        <v>32.15181624817887</v>
       </c>
       <c r="M34" t="n">
-        <v>25.21686539889345</v>
+        <v>25.21686539889344</v>
       </c>
       <c r="N34" t="n">
-        <v>16.52015736928135</v>
+        <v>156.0846028943643</v>
       </c>
       <c r="O34" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777679</v>
       </c>
       <c r="P34" t="n">
         <v>58.47859890024887</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.2169859636892</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="R34" t="n">
         <v>203.4299611556341</v>
       </c>
       <c r="S34" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="T34" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="U34" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="V34" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="W34" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="X34" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="Y34" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
     </row>
     <row r="35">
@@ -30004,40 +30004,40 @@
         <v>272.0591682562687</v>
       </c>
       <c r="I35" t="n">
+        <v>241.009769215476</v>
+      </c>
+      <c r="J35" t="n">
         <v>272.0591682562687</v>
       </c>
-      <c r="J35" t="n">
-        <v>76.78161896459406</v>
-      </c>
       <c r="K35" t="n">
-        <v>267.1880015163296</v>
+        <v>6.727192146300958</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>178.7821234236173</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>225.8945117006674</v>
       </c>
       <c r="P35" t="n">
-        <v>139.8056562007862</v>
+        <v>185.022194842667</v>
       </c>
       <c r="Q35" t="n">
-        <v>272.0591682562687</v>
+        <v>89.71173703742195</v>
       </c>
       <c r="R35" t="n">
-        <v>272.0591682562687</v>
+        <v>194.8815453823668</v>
       </c>
       <c r="S35" t="n">
-        <v>272.0591682562687</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T35" t="n">
-        <v>272.0591682562687</v>
+        <v>222.4658813998192</v>
       </c>
       <c r="U35" t="n">
         <v>272.0591682562687</v>
@@ -30074,7 +30074,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>153.274042935771</v>
       </c>
       <c r="G36" t="n">
         <v>148.7446044746268</v>
@@ -30083,10 +30083,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30110,19 +30110,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>214.9709236054903</v>
       </c>
       <c r="U36" t="n">
-        <v>82.47129671291609</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
@@ -30131,7 +30131,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30159,7 +30159,7 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H37" t="n">
-        <v>201.3808995885136</v>
+        <v>165.8243976546666</v>
       </c>
       <c r="I37" t="n">
         <v>164.852968067965</v>
@@ -30171,16 +30171,16 @@
         <v>67.02998013918997</v>
       </c>
       <c r="L37" t="n">
-        <v>32.15181624817888</v>
+        <v>32.15181624817887</v>
       </c>
       <c r="M37" t="n">
-        <v>25.21686539889345</v>
+        <v>60.77336733274049</v>
       </c>
       <c r="N37" t="n">
-        <v>16.52015736928135</v>
+        <v>16.52015736928134</v>
       </c>
       <c r="O37" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777679</v>
       </c>
       <c r="P37" t="n">
         <v>58.47859890024887</v>
@@ -30241,43 +30241,43 @@
         <v>272.0591682562687</v>
       </c>
       <c r="I38" t="n">
-        <v>272.0591682562687</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J38" t="n">
-        <v>76.78161896459406</v>
+        <v>76.78161896459405</v>
       </c>
       <c r="K38" t="n">
-        <v>6.727192146300972</v>
+        <v>267.1880015163297</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>213.2680391874428</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>178.7821234236173</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>222.3427578688168</v>
+        <v>17.56226511834536</v>
       </c>
       <c r="P38" t="n">
-        <v>272.0591682562687</v>
+        <v>15.09197235108875</v>
       </c>
       <c r="Q38" t="n">
-        <v>272.0591682562687</v>
+        <v>89.71173703742195</v>
       </c>
       <c r="R38" t="n">
         <v>272.0591682562687</v>
       </c>
       <c r="S38" t="n">
-        <v>227.5169945584482</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="T38" t="n">
         <v>222.4658813998192</v>
       </c>
       <c r="U38" t="n">
-        <v>272.0591682562687</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V38" t="n">
         <v>272.0591682562687</v>
@@ -30302,19 +30302,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>88.24657864153468</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H39" t="n">
         <v>125.7355245857741</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R39" t="n">
         <v>134.7198007890777</v>
@@ -30353,19 +30353,19 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9709236054903</v>
+        <v>100.051371532237</v>
       </c>
       <c r="U39" t="n">
         <v>237.2280694968886</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30408,16 +30408,16 @@
         <v>67.02998013918997</v>
       </c>
       <c r="L40" t="n">
-        <v>32.15181624817888</v>
+        <v>67.70831818202592</v>
       </c>
       <c r="M40" t="n">
-        <v>25.21686539889345</v>
+        <v>25.21686539889344</v>
       </c>
       <c r="N40" t="n">
-        <v>16.52015736928135</v>
+        <v>16.52015736928134</v>
       </c>
       <c r="O40" t="n">
-        <v>73.03538593162395</v>
+        <v>37.47888399777679</v>
       </c>
       <c r="P40" t="n">
         <v>58.47859890024887</v>
@@ -30487,7 +30487,7 @@
         <v>241.009769215476</v>
       </c>
       <c r="L41" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>241.009769215476</v>
@@ -30499,16 +30499,16 @@
         <v>241.009769215476</v>
       </c>
       <c r="P41" t="n">
-        <v>43.14944174843734</v>
+        <v>73.24018029572207</v>
       </c>
       <c r="Q41" t="n">
-        <v>89.71173703742197</v>
+        <v>241.009769215476</v>
       </c>
       <c r="R41" t="n">
-        <v>194.8815453823669</v>
+        <v>241.009769215476</v>
       </c>
       <c r="S41" t="n">
-        <v>227.5169945584482</v>
+        <v>241.009769215476</v>
       </c>
       <c r="T41" t="n">
         <v>222.4658813998192</v>
@@ -30545,16 +30545,16 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7446044746268</v>
+        <v>81.22961955940876</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I42" t="n">
         <v>107.3634103439873</v>
@@ -30581,28 +30581,28 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.869455874161041</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S42" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>214.9709236054903</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V42" t="n">
-        <v>210.3264584935368</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30642,22 +30642,22 @@
         <v>120.239607582909</v>
       </c>
       <c r="K43" t="n">
-        <v>67.02998013918997</v>
+        <v>147.3086789456402</v>
       </c>
       <c r="L43" t="n">
-        <v>32.15181624817888</v>
+        <v>32.15181624817887</v>
       </c>
       <c r="M43" t="n">
-        <v>25.21686539889345</v>
+        <v>25.21686539889344</v>
       </c>
       <c r="N43" t="n">
-        <v>16.52015736928135</v>
+        <v>16.52015736928134</v>
       </c>
       <c r="O43" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777679</v>
       </c>
       <c r="P43" t="n">
-        <v>161.5772333211476</v>
+        <v>58.47859890024887</v>
       </c>
       <c r="Q43" t="n">
         <v>127.2169859636892</v>
@@ -30666,10 +30666,10 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S43" t="n">
-        <v>235.4380443661805</v>
+        <v>241.009769215476</v>
       </c>
       <c r="T43" t="n">
-        <v>223.761558450323</v>
+        <v>241.009769215476</v>
       </c>
       <c r="U43" t="n">
         <v>241.009769215476</v>
@@ -30718,22 +30718,22 @@
         <v>241.009769215476</v>
       </c>
       <c r="J44" t="n">
-        <v>76.78161896459406</v>
+        <v>132.8611787858598</v>
       </c>
       <c r="K44" t="n">
-        <v>6.727192146300972</v>
+        <v>241.009769215476</v>
       </c>
       <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
         <v>241.009769215476</v>
-      </c>
-      <c r="M44" t="n">
-        <v>17.31570520227986</v>
       </c>
       <c r="N44" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="O44" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>241.009769215476</v>
@@ -30742,13 +30742,13 @@
         <v>241.009769215476</v>
       </c>
       <c r="R44" t="n">
-        <v>194.8815453823669</v>
+        <v>194.8815453823668</v>
       </c>
       <c r="S44" t="n">
-        <v>241.009769215476</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T44" t="n">
-        <v>241.009769215476</v>
+        <v>222.4658813998192</v>
       </c>
       <c r="U44" t="n">
         <v>241.009769215476</v>
@@ -30773,16 +30773,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>24.8230830652638</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
@@ -30818,16 +30818,16 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.869455874161041</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>191.5907913200043</v>
+        <v>41.52681856394764</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>237.2280694968886</v>
@@ -30836,10 +30836,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30879,19 +30879,19 @@
         <v>120.239607582909</v>
       </c>
       <c r="K46" t="n">
-        <v>170.1286145600887</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L46" t="n">
-        <v>32.15181624817888</v>
+        <v>32.15181624817887</v>
       </c>
       <c r="M46" t="n">
-        <v>25.21686539889345</v>
+        <v>25.21686539889344</v>
       </c>
       <c r="N46" t="n">
-        <v>16.52015736928135</v>
+        <v>119.61879179018</v>
       </c>
       <c r="O46" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777679</v>
       </c>
       <c r="P46" t="n">
         <v>58.47859890024887</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4067191319631734</v>
+        <v>0.4067191319631735</v>
       </c>
       <c r="H11" t="n">
-        <v>4.165312310217851</v>
+        <v>4.165312310217852</v>
       </c>
       <c r="I11" t="n">
         <v>15.68003933501026</v>
       </c>
       <c r="J11" t="n">
-        <v>34.51977792645942</v>
+        <v>34.51977792645943</v>
       </c>
       <c r="K11" t="n">
-        <v>51.73619878246055</v>
+        <v>51.73619878246057</v>
       </c>
       <c r="L11" t="n">
-        <v>64.18332941727854</v>
+        <v>64.18332941727856</v>
       </c>
       <c r="M11" t="n">
-        <v>71.41632078032862</v>
+        <v>71.41632078032865</v>
       </c>
       <c r="N11" t="n">
-        <v>72.57191151401899</v>
+        <v>72.57191151401901</v>
       </c>
       <c r="O11" t="n">
-        <v>68.52759814556018</v>
+        <v>68.52759814556021</v>
       </c>
       <c r="P11" t="n">
-        <v>58.48671957521933</v>
+        <v>58.48671957521935</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.92109066178817</v>
+        <v>43.92109066178818</v>
       </c>
       <c r="R11" t="n">
-        <v>25.54857067318171</v>
+        <v>25.54857067318172</v>
       </c>
       <c r="S11" t="n">
-        <v>9.268112219610822</v>
+        <v>9.268112219610826</v>
       </c>
       <c r="T11" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168793</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705387</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,31 +31832,31 @@
         <v>0.2176139204650132</v>
       </c>
       <c r="H12" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122628</v>
       </c>
       <c r="I12" t="n">
-        <v>7.492409103729621</v>
+        <v>7.492409103729623</v>
       </c>
       <c r="J12" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K12" t="n">
-        <v>35.13987592000171</v>
+        <v>35.13987592000172</v>
       </c>
       <c r="L12" t="n">
-        <v>47.24989970447578</v>
+        <v>47.24989970447579</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13840432133249</v>
+        <v>55.13840432133251</v>
       </c>
       <c r="N12" t="n">
-        <v>56.59775381427551</v>
+        <v>56.59775381427553</v>
       </c>
       <c r="O12" t="n">
-        <v>51.77588747134022</v>
+        <v>51.77588747134023</v>
       </c>
       <c r="P12" t="n">
-        <v>41.55471433862169</v>
+        <v>41.5547143386217</v>
       </c>
       <c r="Q12" t="n">
         <v>27.77822605795502</v>
@@ -31865,13 +31865,13 @@
         <v>13.51115200922249</v>
       </c>
       <c r="S12" t="n">
-        <v>4.042083127935658</v>
+        <v>4.04208312793566</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8771368109971361</v>
+        <v>0.8771368109971364</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375088</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,10 +31914,10 @@
         <v>1.622059239773296</v>
       </c>
       <c r="I13" t="n">
-        <v>5.486474402014377</v>
+        <v>5.486474402014379</v>
       </c>
       <c r="J13" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602957</v>
       </c>
       <c r="K13" t="n">
         <v>21.19623423752833</v>
@@ -31926,31 +31926,31 @@
         <v>27.12388221600457</v>
       </c>
       <c r="M13" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786393</v>
       </c>
       <c r="N13" t="n">
-        <v>27.91832636309191</v>
+        <v>27.91832636309192</v>
       </c>
       <c r="O13" t="n">
-        <v>25.78709310837954</v>
+        <v>25.78709310837955</v>
       </c>
       <c r="P13" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221259</v>
       </c>
       <c r="Q13" t="n">
         <v>15.27687899545176</v>
       </c>
       <c r="R13" t="n">
-        <v>8.203174846542652</v>
+        <v>8.203174846542653</v>
       </c>
       <c r="S13" t="n">
         <v>3.179435135629249</v>
       </c>
       <c r="T13" t="n">
-        <v>0.779517221567943</v>
+        <v>0.7795172215679432</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009951283679590776</v>
+        <v>0.009951283679590779</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4067191319631734</v>
+        <v>0.4067191319631735</v>
       </c>
       <c r="H14" t="n">
-        <v>4.165312310217851</v>
+        <v>4.165312310217852</v>
       </c>
       <c r="I14" t="n">
         <v>15.68003933501026</v>
       </c>
       <c r="J14" t="n">
-        <v>34.51977792645942</v>
+        <v>34.51977792645943</v>
       </c>
       <c r="K14" t="n">
-        <v>51.73619878246055</v>
+        <v>51.73619878246057</v>
       </c>
       <c r="L14" t="n">
-        <v>64.18332941727854</v>
+        <v>64.18332941727856</v>
       </c>
       <c r="M14" t="n">
-        <v>71.41632078032862</v>
+        <v>71.41632078032865</v>
       </c>
       <c r="N14" t="n">
-        <v>72.57191151401899</v>
+        <v>72.57191151401901</v>
       </c>
       <c r="O14" t="n">
-        <v>68.52759814556018</v>
+        <v>68.52759814556021</v>
       </c>
       <c r="P14" t="n">
-        <v>58.48671957521933</v>
+        <v>58.48671957521935</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.92109066178817</v>
+        <v>43.92109066178818</v>
       </c>
       <c r="R14" t="n">
-        <v>25.54857067318171</v>
+        <v>25.54857067318172</v>
       </c>
       <c r="S14" t="n">
-        <v>9.268112219610822</v>
+        <v>9.268112219610826</v>
       </c>
       <c r="T14" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168793</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705387</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,31 +32069,31 @@
         <v>0.2176139204650132</v>
       </c>
       <c r="H15" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122628</v>
       </c>
       <c r="I15" t="n">
-        <v>7.492409103729621</v>
+        <v>7.492409103729623</v>
       </c>
       <c r="J15" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K15" t="n">
-        <v>35.13987592000171</v>
+        <v>35.13987592000172</v>
       </c>
       <c r="L15" t="n">
-        <v>47.24989970447578</v>
+        <v>47.24989970447579</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13840432133249</v>
+        <v>55.13840432133251</v>
       </c>
       <c r="N15" t="n">
-        <v>56.59775381427551</v>
+        <v>56.59775381427553</v>
       </c>
       <c r="O15" t="n">
-        <v>51.77588747134022</v>
+        <v>51.77588747134023</v>
       </c>
       <c r="P15" t="n">
-        <v>41.55471433862169</v>
+        <v>41.5547143386217</v>
       </c>
       <c r="Q15" t="n">
         <v>27.77822605795502</v>
@@ -32102,13 +32102,13 @@
         <v>13.51115200922249</v>
       </c>
       <c r="S15" t="n">
-        <v>4.042083127935658</v>
+        <v>4.04208312793566</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8771368109971361</v>
+        <v>0.8771368109971364</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375088</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,10 +32151,10 @@
         <v>1.622059239773296</v>
       </c>
       <c r="I16" t="n">
-        <v>5.486474402014377</v>
+        <v>5.486474402014379</v>
       </c>
       <c r="J16" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602957</v>
       </c>
       <c r="K16" t="n">
         <v>21.19623423752833</v>
@@ -32163,31 +32163,31 @@
         <v>27.12388221600457</v>
       </c>
       <c r="M16" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786393</v>
       </c>
       <c r="N16" t="n">
-        <v>27.91832636309191</v>
+        <v>27.91832636309192</v>
       </c>
       <c r="O16" t="n">
-        <v>25.78709310837954</v>
+        <v>25.78709310837955</v>
       </c>
       <c r="P16" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221259</v>
       </c>
       <c r="Q16" t="n">
         <v>15.27687899545176</v>
       </c>
       <c r="R16" t="n">
-        <v>8.203174846542652</v>
+        <v>8.203174846542653</v>
       </c>
       <c r="S16" t="n">
         <v>3.179435135629249</v>
       </c>
       <c r="T16" t="n">
-        <v>0.779517221567943</v>
+        <v>0.7795172215679432</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009951283679590776</v>
+        <v>0.009951283679590779</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4067191319631734</v>
+        <v>0.4067191319631735</v>
       </c>
       <c r="H17" t="n">
-        <v>4.165312310217851</v>
+        <v>4.165312310217852</v>
       </c>
       <c r="I17" t="n">
         <v>15.68003933501026</v>
       </c>
       <c r="J17" t="n">
-        <v>34.51977792645942</v>
+        <v>34.51977792645943</v>
       </c>
       <c r="K17" t="n">
-        <v>51.73619878246055</v>
+        <v>51.73619878246057</v>
       </c>
       <c r="L17" t="n">
-        <v>64.18332941727854</v>
+        <v>64.18332941727856</v>
       </c>
       <c r="M17" t="n">
-        <v>71.41632078032862</v>
+        <v>71.41632078032865</v>
       </c>
       <c r="N17" t="n">
-        <v>72.57191151401899</v>
+        <v>72.57191151401901</v>
       </c>
       <c r="O17" t="n">
-        <v>68.52759814556018</v>
+        <v>68.52759814556021</v>
       </c>
       <c r="P17" t="n">
-        <v>58.48671957521933</v>
+        <v>58.48671957521935</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.92109066178817</v>
+        <v>43.92109066178818</v>
       </c>
       <c r="R17" t="n">
-        <v>25.54857067318171</v>
+        <v>25.54857067318172</v>
       </c>
       <c r="S17" t="n">
-        <v>9.268112219610822</v>
+        <v>9.268112219610826</v>
       </c>
       <c r="T17" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168793</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705387</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,31 +32306,31 @@
         <v>0.2176139204650132</v>
       </c>
       <c r="H18" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122628</v>
       </c>
       <c r="I18" t="n">
-        <v>7.492409103729621</v>
+        <v>7.492409103729623</v>
       </c>
       <c r="J18" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K18" t="n">
-        <v>35.13987592000171</v>
+        <v>35.13987592000172</v>
       </c>
       <c r="L18" t="n">
-        <v>47.24989970447578</v>
+        <v>47.24989970447579</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13840432133249</v>
+        <v>55.13840432133251</v>
       </c>
       <c r="N18" t="n">
-        <v>56.59775381427551</v>
+        <v>56.59775381427553</v>
       </c>
       <c r="O18" t="n">
-        <v>51.77588747134022</v>
+        <v>51.77588747134023</v>
       </c>
       <c r="P18" t="n">
-        <v>41.55471433862169</v>
+        <v>41.5547143386217</v>
       </c>
       <c r="Q18" t="n">
         <v>27.77822605795502</v>
@@ -32339,13 +32339,13 @@
         <v>13.51115200922249</v>
       </c>
       <c r="S18" t="n">
-        <v>4.042083127935658</v>
+        <v>4.04208312793566</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8771368109971361</v>
+        <v>0.8771368109971364</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375088</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,10 +32388,10 @@
         <v>1.622059239773296</v>
       </c>
       <c r="I19" t="n">
-        <v>5.486474402014377</v>
+        <v>5.486474402014379</v>
       </c>
       <c r="J19" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602957</v>
       </c>
       <c r="K19" t="n">
         <v>21.19623423752833</v>
@@ -32400,31 +32400,31 @@
         <v>27.12388221600457</v>
       </c>
       <c r="M19" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786393</v>
       </c>
       <c r="N19" t="n">
-        <v>27.91832636309191</v>
+        <v>27.91832636309192</v>
       </c>
       <c r="O19" t="n">
-        <v>25.78709310837954</v>
+        <v>25.78709310837955</v>
       </c>
       <c r="P19" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221259</v>
       </c>
       <c r="Q19" t="n">
         <v>15.27687899545176</v>
       </c>
       <c r="R19" t="n">
-        <v>8.203174846542652</v>
+        <v>8.203174846542653</v>
       </c>
       <c r="S19" t="n">
         <v>3.179435135629249</v>
       </c>
       <c r="T19" t="n">
-        <v>0.779517221567943</v>
+        <v>0.7795172215679432</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009951283679590776</v>
+        <v>0.009951283679590779</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4067191319631734</v>
+        <v>0.4067191319631735</v>
       </c>
       <c r="H20" t="n">
-        <v>4.165312310217851</v>
+        <v>4.165312310217852</v>
       </c>
       <c r="I20" t="n">
         <v>15.68003933501026</v>
       </c>
       <c r="J20" t="n">
-        <v>34.51977792645942</v>
+        <v>34.51977792645943</v>
       </c>
       <c r="K20" t="n">
-        <v>51.73619878246055</v>
+        <v>51.73619878246057</v>
       </c>
       <c r="L20" t="n">
-        <v>64.18332941727854</v>
+        <v>64.18332941727856</v>
       </c>
       <c r="M20" t="n">
-        <v>71.41632078032862</v>
+        <v>71.41632078032865</v>
       </c>
       <c r="N20" t="n">
-        <v>72.57191151401899</v>
+        <v>72.57191151401901</v>
       </c>
       <c r="O20" t="n">
-        <v>68.52759814556018</v>
+        <v>68.52759814556021</v>
       </c>
       <c r="P20" t="n">
-        <v>58.48671957521933</v>
+        <v>58.48671957521935</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.92109066178817</v>
+        <v>43.92109066178818</v>
       </c>
       <c r="R20" t="n">
-        <v>25.54857067318171</v>
+        <v>25.54857067318172</v>
       </c>
       <c r="S20" t="n">
-        <v>9.268112219610822</v>
+        <v>9.268112219610826</v>
       </c>
       <c r="T20" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168793</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705387</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,31 +32543,31 @@
         <v>0.2176139204650132</v>
       </c>
       <c r="H21" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122628</v>
       </c>
       <c r="I21" t="n">
-        <v>7.492409103729621</v>
+        <v>7.492409103729623</v>
       </c>
       <c r="J21" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K21" t="n">
-        <v>35.13987592000171</v>
+        <v>35.13987592000172</v>
       </c>
       <c r="L21" t="n">
-        <v>47.24989970447578</v>
+        <v>47.24989970447579</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13840432133249</v>
+        <v>55.13840432133251</v>
       </c>
       <c r="N21" t="n">
-        <v>56.59775381427551</v>
+        <v>56.59775381427553</v>
       </c>
       <c r="O21" t="n">
-        <v>51.77588747134022</v>
+        <v>51.77588747134023</v>
       </c>
       <c r="P21" t="n">
-        <v>41.55471433862169</v>
+        <v>41.5547143386217</v>
       </c>
       <c r="Q21" t="n">
         <v>27.77822605795502</v>
@@ -32576,13 +32576,13 @@
         <v>13.51115200922249</v>
       </c>
       <c r="S21" t="n">
-        <v>4.042083127935658</v>
+        <v>4.04208312793566</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8771368109971361</v>
+        <v>0.8771368109971364</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375088</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,10 +32625,10 @@
         <v>1.622059239773296</v>
       </c>
       <c r="I22" t="n">
-        <v>5.486474402014377</v>
+        <v>5.486474402014379</v>
       </c>
       <c r="J22" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602957</v>
       </c>
       <c r="K22" t="n">
         <v>21.19623423752833</v>
@@ -32637,31 +32637,31 @@
         <v>27.12388221600457</v>
       </c>
       <c r="M22" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786393</v>
       </c>
       <c r="N22" t="n">
-        <v>27.91832636309191</v>
+        <v>27.91832636309192</v>
       </c>
       <c r="O22" t="n">
-        <v>25.78709310837954</v>
+        <v>25.78709310837955</v>
       </c>
       <c r="P22" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221259</v>
       </c>
       <c r="Q22" t="n">
         <v>15.27687899545176</v>
       </c>
       <c r="R22" t="n">
-        <v>8.203174846542652</v>
+        <v>8.203174846542653</v>
       </c>
       <c r="S22" t="n">
         <v>3.179435135629249</v>
       </c>
       <c r="T22" t="n">
-        <v>0.779517221567943</v>
+        <v>0.7795172215679432</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009951283679590776</v>
+        <v>0.009951283679590779</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4067191319631734</v>
+        <v>0.4067191319631735</v>
       </c>
       <c r="H23" t="n">
-        <v>4.165312310217851</v>
+        <v>4.165312310217852</v>
       </c>
       <c r="I23" t="n">
         <v>15.68003933501026</v>
       </c>
       <c r="J23" t="n">
-        <v>34.51977792645942</v>
+        <v>34.51977792645943</v>
       </c>
       <c r="K23" t="n">
-        <v>51.73619878246055</v>
+        <v>51.73619878246057</v>
       </c>
       <c r="L23" t="n">
-        <v>64.18332941727854</v>
+        <v>64.18332941727856</v>
       </c>
       <c r="M23" t="n">
-        <v>71.41632078032862</v>
+        <v>71.41632078032865</v>
       </c>
       <c r="N23" t="n">
-        <v>72.57191151401899</v>
+        <v>72.57191151401901</v>
       </c>
       <c r="O23" t="n">
-        <v>68.52759814556018</v>
+        <v>68.52759814556021</v>
       </c>
       <c r="P23" t="n">
-        <v>58.48671957521933</v>
+        <v>58.48671957521935</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.92109066178817</v>
+        <v>43.92109066178818</v>
       </c>
       <c r="R23" t="n">
-        <v>25.54857067318171</v>
+        <v>25.54857067318172</v>
       </c>
       <c r="S23" t="n">
-        <v>9.268112219610822</v>
+        <v>9.268112219610826</v>
       </c>
       <c r="T23" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168793</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705387</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,31 +32780,31 @@
         <v>0.2176139204650132</v>
       </c>
       <c r="H24" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122628</v>
       </c>
       <c r="I24" t="n">
-        <v>7.492409103729621</v>
+        <v>7.492409103729623</v>
       </c>
       <c r="J24" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K24" t="n">
-        <v>35.13987592000171</v>
+        <v>35.13987592000172</v>
       </c>
       <c r="L24" t="n">
-        <v>47.24989970447578</v>
+        <v>47.24989970447579</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13840432133249</v>
+        <v>55.13840432133251</v>
       </c>
       <c r="N24" t="n">
-        <v>56.59775381427551</v>
+        <v>56.59775381427553</v>
       </c>
       <c r="O24" t="n">
-        <v>51.77588747134022</v>
+        <v>51.77588747134023</v>
       </c>
       <c r="P24" t="n">
-        <v>41.55471433862169</v>
+        <v>41.5547143386217</v>
       </c>
       <c r="Q24" t="n">
         <v>27.77822605795502</v>
@@ -32813,13 +32813,13 @@
         <v>13.51115200922249</v>
       </c>
       <c r="S24" t="n">
-        <v>4.042083127935658</v>
+        <v>4.04208312793566</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8771368109971361</v>
+        <v>0.8771368109971364</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375088</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,10 +32862,10 @@
         <v>1.622059239773296</v>
       </c>
       <c r="I25" t="n">
-        <v>5.486474402014377</v>
+        <v>5.486474402014379</v>
       </c>
       <c r="J25" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602957</v>
       </c>
       <c r="K25" t="n">
         <v>21.19623423752833</v>
@@ -32874,31 +32874,31 @@
         <v>27.12388221600457</v>
       </c>
       <c r="M25" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786393</v>
       </c>
       <c r="N25" t="n">
-        <v>27.91832636309191</v>
+        <v>27.91832636309192</v>
       </c>
       <c r="O25" t="n">
-        <v>25.78709310837954</v>
+        <v>25.78709310837955</v>
       </c>
       <c r="P25" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221259</v>
       </c>
       <c r="Q25" t="n">
         <v>15.27687899545176</v>
       </c>
       <c r="R25" t="n">
-        <v>8.203174846542652</v>
+        <v>8.203174846542653</v>
       </c>
       <c r="S25" t="n">
         <v>3.179435135629249</v>
       </c>
       <c r="T25" t="n">
-        <v>0.779517221567943</v>
+        <v>0.7795172215679432</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009951283679590776</v>
+        <v>0.009951283679590779</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4067191319631734</v>
+        <v>0.4067191319631735</v>
       </c>
       <c r="H26" t="n">
-        <v>4.165312310217851</v>
+        <v>4.165312310217852</v>
       </c>
       <c r="I26" t="n">
         <v>15.68003933501026</v>
       </c>
       <c r="J26" t="n">
-        <v>34.51977792645942</v>
+        <v>34.51977792645943</v>
       </c>
       <c r="K26" t="n">
-        <v>51.73619878246055</v>
+        <v>51.73619878246057</v>
       </c>
       <c r="L26" t="n">
-        <v>64.18332941727854</v>
+        <v>64.18332941727856</v>
       </c>
       <c r="M26" t="n">
-        <v>71.41632078032862</v>
+        <v>71.41632078032865</v>
       </c>
       <c r="N26" t="n">
-        <v>72.57191151401899</v>
+        <v>72.57191151401901</v>
       </c>
       <c r="O26" t="n">
-        <v>68.52759814556018</v>
+        <v>68.52759814556021</v>
       </c>
       <c r="P26" t="n">
-        <v>58.48671957521933</v>
+        <v>58.48671957521935</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.92109066178817</v>
+        <v>43.92109066178818</v>
       </c>
       <c r="R26" t="n">
-        <v>25.54857067318171</v>
+        <v>25.54857067318172</v>
       </c>
       <c r="S26" t="n">
-        <v>9.268112219610822</v>
+        <v>9.268112219610826</v>
       </c>
       <c r="T26" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168793</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705387</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,31 +33017,31 @@
         <v>0.2176139204650132</v>
       </c>
       <c r="H27" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122628</v>
       </c>
       <c r="I27" t="n">
-        <v>7.492409103729621</v>
+        <v>7.492409103729623</v>
       </c>
       <c r="J27" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K27" t="n">
-        <v>35.13987592000171</v>
+        <v>35.13987592000172</v>
       </c>
       <c r="L27" t="n">
-        <v>47.24989970447578</v>
+        <v>47.24989970447579</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13840432133249</v>
+        <v>55.13840432133251</v>
       </c>
       <c r="N27" t="n">
-        <v>56.59775381427551</v>
+        <v>56.59775381427553</v>
       </c>
       <c r="O27" t="n">
-        <v>51.77588747134022</v>
+        <v>51.77588747134023</v>
       </c>
       <c r="P27" t="n">
-        <v>41.55471433862169</v>
+        <v>41.5547143386217</v>
       </c>
       <c r="Q27" t="n">
         <v>27.77822605795502</v>
@@ -33050,13 +33050,13 @@
         <v>13.51115200922249</v>
       </c>
       <c r="S27" t="n">
-        <v>4.042083127935658</v>
+        <v>4.04208312793566</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8771368109971361</v>
+        <v>0.8771368109971364</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375088</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,10 +33099,10 @@
         <v>1.622059239773296</v>
       </c>
       <c r="I28" t="n">
-        <v>5.486474402014377</v>
+        <v>5.486474402014379</v>
       </c>
       <c r="J28" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602957</v>
       </c>
       <c r="K28" t="n">
         <v>21.19623423752833</v>
@@ -33111,31 +33111,31 @@
         <v>27.12388221600457</v>
       </c>
       <c r="M28" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786393</v>
       </c>
       <c r="N28" t="n">
-        <v>27.91832636309191</v>
+        <v>27.91832636309192</v>
       </c>
       <c r="O28" t="n">
-        <v>25.78709310837954</v>
+        <v>25.78709310837955</v>
       </c>
       <c r="P28" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221259</v>
       </c>
       <c r="Q28" t="n">
         <v>15.27687899545176</v>
       </c>
       <c r="R28" t="n">
-        <v>8.203174846542652</v>
+        <v>8.203174846542653</v>
       </c>
       <c r="S28" t="n">
         <v>3.179435135629249</v>
       </c>
       <c r="T28" t="n">
-        <v>0.779517221567943</v>
+        <v>0.7795172215679432</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009951283679590776</v>
+        <v>0.009951283679590779</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4067191319631734</v>
+        <v>0.4067191319631735</v>
       </c>
       <c r="H29" t="n">
-        <v>4.165312310217851</v>
+        <v>4.165312310217852</v>
       </c>
       <c r="I29" t="n">
         <v>15.68003933501026</v>
       </c>
       <c r="J29" t="n">
-        <v>34.51977792645942</v>
+        <v>34.51977792645943</v>
       </c>
       <c r="K29" t="n">
-        <v>51.73619878246055</v>
+        <v>51.73619878246057</v>
       </c>
       <c r="L29" t="n">
-        <v>64.18332941727854</v>
+        <v>64.18332941727856</v>
       </c>
       <c r="M29" t="n">
-        <v>71.41632078032862</v>
+        <v>71.41632078032865</v>
       </c>
       <c r="N29" t="n">
-        <v>72.57191151401899</v>
+        <v>72.57191151401901</v>
       </c>
       <c r="O29" t="n">
-        <v>68.52759814556018</v>
+        <v>68.52759814556021</v>
       </c>
       <c r="P29" t="n">
-        <v>58.48671957521933</v>
+        <v>58.48671957521935</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.92109066178817</v>
+        <v>43.92109066178818</v>
       </c>
       <c r="R29" t="n">
-        <v>25.54857067318171</v>
+        <v>25.54857067318172</v>
       </c>
       <c r="S29" t="n">
-        <v>9.268112219610822</v>
+        <v>9.268112219610826</v>
       </c>
       <c r="T29" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168793</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705387</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,31 +33254,31 @@
         <v>0.2176139204650132</v>
       </c>
       <c r="H30" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122628</v>
       </c>
       <c r="I30" t="n">
-        <v>7.492409103729621</v>
+        <v>7.492409103729623</v>
       </c>
       <c r="J30" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K30" t="n">
-        <v>35.13987592000171</v>
+        <v>35.13987592000172</v>
       </c>
       <c r="L30" t="n">
-        <v>47.24989970447578</v>
+        <v>47.24989970447579</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13840432133249</v>
+        <v>55.13840432133251</v>
       </c>
       <c r="N30" t="n">
-        <v>56.59775381427551</v>
+        <v>56.59775381427553</v>
       </c>
       <c r="O30" t="n">
-        <v>51.77588747134022</v>
+        <v>51.77588747134023</v>
       </c>
       <c r="P30" t="n">
-        <v>41.55471433862169</v>
+        <v>41.5547143386217</v>
       </c>
       <c r="Q30" t="n">
         <v>27.77822605795502</v>
@@ -33287,13 +33287,13 @@
         <v>13.51115200922249</v>
       </c>
       <c r="S30" t="n">
-        <v>4.042083127935658</v>
+        <v>4.04208312793566</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8771368109971361</v>
+        <v>0.8771368109971364</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375088</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,10 +33336,10 @@
         <v>1.622059239773296</v>
       </c>
       <c r="I31" t="n">
-        <v>5.486474402014377</v>
+        <v>5.486474402014379</v>
       </c>
       <c r="J31" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602957</v>
       </c>
       <c r="K31" t="n">
         <v>21.19623423752833</v>
@@ -33348,31 +33348,31 @@
         <v>27.12388221600457</v>
       </c>
       <c r="M31" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786393</v>
       </c>
       <c r="N31" t="n">
-        <v>27.91832636309191</v>
+        <v>27.91832636309192</v>
       </c>
       <c r="O31" t="n">
-        <v>25.78709310837954</v>
+        <v>25.78709310837955</v>
       </c>
       <c r="P31" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221259</v>
       </c>
       <c r="Q31" t="n">
         <v>15.27687899545176</v>
       </c>
       <c r="R31" t="n">
-        <v>8.203174846542652</v>
+        <v>8.203174846542653</v>
       </c>
       <c r="S31" t="n">
         <v>3.179435135629249</v>
       </c>
       <c r="T31" t="n">
-        <v>0.779517221567943</v>
+        <v>0.7795172215679432</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009951283679590776</v>
+        <v>0.009951283679590779</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4067191319631734</v>
+        <v>0.4067191319631735</v>
       </c>
       <c r="H32" t="n">
-        <v>4.165312310217851</v>
+        <v>4.165312310217852</v>
       </c>
       <c r="I32" t="n">
         <v>15.68003933501026</v>
       </c>
       <c r="J32" t="n">
-        <v>34.51977792645942</v>
+        <v>34.51977792645943</v>
       </c>
       <c r="K32" t="n">
-        <v>51.73619878246055</v>
+        <v>51.73619878246057</v>
       </c>
       <c r="L32" t="n">
-        <v>64.18332941727854</v>
+        <v>64.18332941727856</v>
       </c>
       <c r="M32" t="n">
-        <v>71.41632078032862</v>
+        <v>71.41632078032865</v>
       </c>
       <c r="N32" t="n">
-        <v>72.57191151401899</v>
+        <v>72.57191151401901</v>
       </c>
       <c r="O32" t="n">
-        <v>68.52759814556018</v>
+        <v>68.52759814556021</v>
       </c>
       <c r="P32" t="n">
-        <v>58.48671957521933</v>
+        <v>58.48671957521935</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.92109066178817</v>
+        <v>43.92109066178818</v>
       </c>
       <c r="R32" t="n">
-        <v>25.54857067318171</v>
+        <v>25.54857067318172</v>
       </c>
       <c r="S32" t="n">
-        <v>9.268112219610822</v>
+        <v>9.268112219610826</v>
       </c>
       <c r="T32" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168793</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705387</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,31 +33491,31 @@
         <v>0.2176139204650132</v>
       </c>
       <c r="H33" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122628</v>
       </c>
       <c r="I33" t="n">
-        <v>7.492409103729621</v>
+        <v>7.492409103729623</v>
       </c>
       <c r="J33" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K33" t="n">
-        <v>35.13987592000171</v>
+        <v>35.13987592000172</v>
       </c>
       <c r="L33" t="n">
-        <v>47.24989970447578</v>
+        <v>47.24989970447579</v>
       </c>
       <c r="M33" t="n">
-        <v>55.13840432133249</v>
+        <v>55.13840432133251</v>
       </c>
       <c r="N33" t="n">
-        <v>56.59775381427551</v>
+        <v>56.59775381427553</v>
       </c>
       <c r="O33" t="n">
-        <v>51.77588747134022</v>
+        <v>51.77588747134023</v>
       </c>
       <c r="P33" t="n">
-        <v>41.55471433862169</v>
+        <v>41.5547143386217</v>
       </c>
       <c r="Q33" t="n">
         <v>27.77822605795502</v>
@@ -33524,13 +33524,13 @@
         <v>13.51115200922249</v>
       </c>
       <c r="S33" t="n">
-        <v>4.042083127935658</v>
+        <v>4.04208312793566</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8771368109971361</v>
+        <v>0.8771368109971364</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375088</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,10 +33573,10 @@
         <v>1.622059239773296</v>
       </c>
       <c r="I34" t="n">
-        <v>5.486474402014377</v>
+        <v>5.486474402014379</v>
       </c>
       <c r="J34" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602957</v>
       </c>
       <c r="K34" t="n">
         <v>21.19623423752833</v>
@@ -33585,31 +33585,31 @@
         <v>27.12388221600457</v>
       </c>
       <c r="M34" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786393</v>
       </c>
       <c r="N34" t="n">
-        <v>27.91832636309191</v>
+        <v>27.91832636309192</v>
       </c>
       <c r="O34" t="n">
-        <v>25.78709310837954</v>
+        <v>25.78709310837955</v>
       </c>
       <c r="P34" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221259</v>
       </c>
       <c r="Q34" t="n">
         <v>15.27687899545176</v>
       </c>
       <c r="R34" t="n">
-        <v>8.203174846542652</v>
+        <v>8.203174846542653</v>
       </c>
       <c r="S34" t="n">
         <v>3.179435135629249</v>
       </c>
       <c r="T34" t="n">
-        <v>0.779517221567943</v>
+        <v>0.7795172215679432</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009951283679590776</v>
+        <v>0.009951283679590779</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4067191319631734</v>
+        <v>0.4067191319631735</v>
       </c>
       <c r="H35" t="n">
-        <v>4.165312310217851</v>
+        <v>4.165312310217852</v>
       </c>
       <c r="I35" t="n">
         <v>15.68003933501026</v>
       </c>
       <c r="J35" t="n">
-        <v>34.51977792645942</v>
+        <v>34.51977792645943</v>
       </c>
       <c r="K35" t="n">
-        <v>51.73619878246055</v>
+        <v>51.73619878246057</v>
       </c>
       <c r="L35" t="n">
-        <v>64.18332941727854</v>
+        <v>64.18332941727856</v>
       </c>
       <c r="M35" t="n">
-        <v>71.41632078032862</v>
+        <v>71.41632078032865</v>
       </c>
       <c r="N35" t="n">
-        <v>72.57191151401899</v>
+        <v>72.57191151401901</v>
       </c>
       <c r="O35" t="n">
-        <v>68.52759814556018</v>
+        <v>68.52759814556021</v>
       </c>
       <c r="P35" t="n">
-        <v>58.48671957521933</v>
+        <v>58.48671957521935</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.92109066178817</v>
+        <v>43.92109066178818</v>
       </c>
       <c r="R35" t="n">
-        <v>25.54857067318171</v>
+        <v>25.54857067318172</v>
       </c>
       <c r="S35" t="n">
-        <v>9.268112219610822</v>
+        <v>9.268112219610826</v>
       </c>
       <c r="T35" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168793</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705387</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,31 +33728,31 @@
         <v>0.2176139204650132</v>
       </c>
       <c r="H36" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122628</v>
       </c>
       <c r="I36" t="n">
-        <v>7.492409103729621</v>
+        <v>7.492409103729623</v>
       </c>
       <c r="J36" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K36" t="n">
-        <v>35.13987592000171</v>
+        <v>35.13987592000172</v>
       </c>
       <c r="L36" t="n">
-        <v>47.24989970447578</v>
+        <v>47.24989970447579</v>
       </c>
       <c r="M36" t="n">
-        <v>55.13840432133249</v>
+        <v>55.13840432133251</v>
       </c>
       <c r="N36" t="n">
-        <v>56.59775381427551</v>
+        <v>56.59775381427553</v>
       </c>
       <c r="O36" t="n">
-        <v>51.77588747134022</v>
+        <v>51.77588747134023</v>
       </c>
       <c r="P36" t="n">
-        <v>41.55471433862169</v>
+        <v>41.5547143386217</v>
       </c>
       <c r="Q36" t="n">
         <v>27.77822605795502</v>
@@ -33761,13 +33761,13 @@
         <v>13.51115200922249</v>
       </c>
       <c r="S36" t="n">
-        <v>4.042083127935658</v>
+        <v>4.04208312793566</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8771368109971361</v>
+        <v>0.8771368109971364</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375088</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,10 +33810,10 @@
         <v>1.622059239773296</v>
       </c>
       <c r="I37" t="n">
-        <v>5.486474402014377</v>
+        <v>5.486474402014379</v>
       </c>
       <c r="J37" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602957</v>
       </c>
       <c r="K37" t="n">
         <v>21.19623423752833</v>
@@ -33822,31 +33822,31 @@
         <v>27.12388221600457</v>
       </c>
       <c r="M37" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786393</v>
       </c>
       <c r="N37" t="n">
-        <v>27.91832636309191</v>
+        <v>27.91832636309192</v>
       </c>
       <c r="O37" t="n">
-        <v>25.78709310837954</v>
+        <v>25.78709310837955</v>
       </c>
       <c r="P37" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221259</v>
       </c>
       <c r="Q37" t="n">
         <v>15.27687899545176</v>
       </c>
       <c r="R37" t="n">
-        <v>8.203174846542652</v>
+        <v>8.203174846542653</v>
       </c>
       <c r="S37" t="n">
         <v>3.179435135629249</v>
       </c>
       <c r="T37" t="n">
-        <v>0.779517221567943</v>
+        <v>0.7795172215679432</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009951283679590776</v>
+        <v>0.009951283679590779</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4067191319631734</v>
+        <v>0.4067191319631735</v>
       </c>
       <c r="H38" t="n">
-        <v>4.165312310217851</v>
+        <v>4.165312310217852</v>
       </c>
       <c r="I38" t="n">
         <v>15.68003933501026</v>
       </c>
       <c r="J38" t="n">
-        <v>34.51977792645942</v>
+        <v>34.51977792645943</v>
       </c>
       <c r="K38" t="n">
-        <v>51.73619878246055</v>
+        <v>51.73619878246057</v>
       </c>
       <c r="L38" t="n">
-        <v>64.18332941727854</v>
+        <v>64.18332941727856</v>
       </c>
       <c r="M38" t="n">
-        <v>71.41632078032862</v>
+        <v>71.41632078032865</v>
       </c>
       <c r="N38" t="n">
-        <v>72.57191151401899</v>
+        <v>72.57191151401901</v>
       </c>
       <c r="O38" t="n">
-        <v>68.52759814556018</v>
+        <v>68.52759814556021</v>
       </c>
       <c r="P38" t="n">
-        <v>58.48671957521933</v>
+        <v>58.48671957521935</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.92109066178817</v>
+        <v>43.92109066178818</v>
       </c>
       <c r="R38" t="n">
-        <v>25.54857067318171</v>
+        <v>25.54857067318172</v>
       </c>
       <c r="S38" t="n">
-        <v>9.268112219610822</v>
+        <v>9.268112219610826</v>
       </c>
       <c r="T38" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168793</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705387</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,31 +33965,31 @@
         <v>0.2176139204650132</v>
       </c>
       <c r="H39" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122628</v>
       </c>
       <c r="I39" t="n">
-        <v>7.492409103729621</v>
+        <v>7.492409103729623</v>
       </c>
       <c r="J39" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K39" t="n">
-        <v>35.13987592000171</v>
+        <v>35.13987592000172</v>
       </c>
       <c r="L39" t="n">
-        <v>47.24989970447578</v>
+        <v>47.24989970447579</v>
       </c>
       <c r="M39" t="n">
-        <v>55.13840432133249</v>
+        <v>55.13840432133251</v>
       </c>
       <c r="N39" t="n">
-        <v>56.59775381427551</v>
+        <v>56.59775381427553</v>
       </c>
       <c r="O39" t="n">
-        <v>51.77588747134022</v>
+        <v>51.77588747134023</v>
       </c>
       <c r="P39" t="n">
-        <v>41.55471433862169</v>
+        <v>41.5547143386217</v>
       </c>
       <c r="Q39" t="n">
         <v>27.77822605795502</v>
@@ -33998,13 +33998,13 @@
         <v>13.51115200922249</v>
       </c>
       <c r="S39" t="n">
-        <v>4.042083127935658</v>
+        <v>4.04208312793566</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8771368109971361</v>
+        <v>0.8771368109971364</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375088</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,10 +34047,10 @@
         <v>1.622059239773296</v>
       </c>
       <c r="I40" t="n">
-        <v>5.486474402014377</v>
+        <v>5.486474402014379</v>
       </c>
       <c r="J40" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602957</v>
       </c>
       <c r="K40" t="n">
         <v>21.19623423752833</v>
@@ -34059,31 +34059,31 @@
         <v>27.12388221600457</v>
       </c>
       <c r="M40" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786393</v>
       </c>
       <c r="N40" t="n">
-        <v>27.91832636309191</v>
+        <v>27.91832636309192</v>
       </c>
       <c r="O40" t="n">
-        <v>25.78709310837954</v>
+        <v>25.78709310837955</v>
       </c>
       <c r="P40" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221259</v>
       </c>
       <c r="Q40" t="n">
         <v>15.27687899545176</v>
       </c>
       <c r="R40" t="n">
-        <v>8.203174846542652</v>
+        <v>8.203174846542653</v>
       </c>
       <c r="S40" t="n">
         <v>3.179435135629249</v>
       </c>
       <c r="T40" t="n">
-        <v>0.779517221567943</v>
+        <v>0.7795172215679432</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009951283679590776</v>
+        <v>0.009951283679590779</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4067191319631734</v>
+        <v>0.4067191319631735</v>
       </c>
       <c r="H41" t="n">
-        <v>4.165312310217851</v>
+        <v>4.165312310217852</v>
       </c>
       <c r="I41" t="n">
         <v>15.68003933501026</v>
       </c>
       <c r="J41" t="n">
-        <v>34.51977792645942</v>
+        <v>34.51977792645943</v>
       </c>
       <c r="K41" t="n">
-        <v>51.73619878246055</v>
+        <v>51.73619878246057</v>
       </c>
       <c r="L41" t="n">
-        <v>64.18332941727854</v>
+        <v>64.18332941727856</v>
       </c>
       <c r="M41" t="n">
-        <v>71.41632078032862</v>
+        <v>71.41632078032865</v>
       </c>
       <c r="N41" t="n">
-        <v>72.57191151401899</v>
+        <v>72.57191151401901</v>
       </c>
       <c r="O41" t="n">
-        <v>68.52759814556018</v>
+        <v>68.52759814556021</v>
       </c>
       <c r="P41" t="n">
-        <v>58.48671957521933</v>
+        <v>58.48671957521935</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.92109066178817</v>
+        <v>43.92109066178818</v>
       </c>
       <c r="R41" t="n">
-        <v>25.54857067318171</v>
+        <v>25.54857067318172</v>
       </c>
       <c r="S41" t="n">
-        <v>9.268112219610822</v>
+        <v>9.268112219610826</v>
       </c>
       <c r="T41" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168793</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705387</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,31 +34202,31 @@
         <v>0.2176139204650132</v>
       </c>
       <c r="H42" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122628</v>
       </c>
       <c r="I42" t="n">
-        <v>7.492409103729621</v>
+        <v>7.492409103729623</v>
       </c>
       <c r="J42" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K42" t="n">
-        <v>35.13987592000171</v>
+        <v>35.13987592000172</v>
       </c>
       <c r="L42" t="n">
-        <v>47.24989970447578</v>
+        <v>47.24989970447579</v>
       </c>
       <c r="M42" t="n">
-        <v>55.13840432133249</v>
+        <v>55.13840432133251</v>
       </c>
       <c r="N42" t="n">
-        <v>56.59775381427551</v>
+        <v>56.59775381427553</v>
       </c>
       <c r="O42" t="n">
-        <v>51.77588747134022</v>
+        <v>51.77588747134023</v>
       </c>
       <c r="P42" t="n">
-        <v>41.55471433862169</v>
+        <v>41.5547143386217</v>
       </c>
       <c r="Q42" t="n">
         <v>27.77822605795502</v>
@@ -34235,13 +34235,13 @@
         <v>13.51115200922249</v>
       </c>
       <c r="S42" t="n">
-        <v>4.042083127935658</v>
+        <v>4.04208312793566</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8771368109971361</v>
+        <v>0.8771368109971364</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375088</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,10 +34284,10 @@
         <v>1.622059239773296</v>
       </c>
       <c r="I43" t="n">
-        <v>5.486474402014377</v>
+        <v>5.486474402014379</v>
       </c>
       <c r="J43" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602957</v>
       </c>
       <c r="K43" t="n">
         <v>21.19623423752833</v>
@@ -34296,31 +34296,31 @@
         <v>27.12388221600457</v>
       </c>
       <c r="M43" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786393</v>
       </c>
       <c r="N43" t="n">
-        <v>27.91832636309191</v>
+        <v>27.91832636309192</v>
       </c>
       <c r="O43" t="n">
-        <v>25.78709310837954</v>
+        <v>25.78709310837955</v>
       </c>
       <c r="P43" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221259</v>
       </c>
       <c r="Q43" t="n">
         <v>15.27687899545176</v>
       </c>
       <c r="R43" t="n">
-        <v>8.203174846542652</v>
+        <v>8.203174846542653</v>
       </c>
       <c r="S43" t="n">
         <v>3.179435135629249</v>
       </c>
       <c r="T43" t="n">
-        <v>0.779517221567943</v>
+        <v>0.7795172215679432</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009951283679590776</v>
+        <v>0.009951283679590779</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4067191319631734</v>
+        <v>0.4067191319631735</v>
       </c>
       <c r="H44" t="n">
-        <v>4.165312310217851</v>
+        <v>4.165312310217852</v>
       </c>
       <c r="I44" t="n">
         <v>15.68003933501026</v>
       </c>
       <c r="J44" t="n">
-        <v>34.51977792645942</v>
+        <v>34.51977792645943</v>
       </c>
       <c r="K44" t="n">
-        <v>51.73619878246055</v>
+        <v>51.73619878246057</v>
       </c>
       <c r="L44" t="n">
-        <v>64.18332941727854</v>
+        <v>64.18332941727856</v>
       </c>
       <c r="M44" t="n">
-        <v>71.41632078032862</v>
+        <v>71.41632078032865</v>
       </c>
       <c r="N44" t="n">
-        <v>72.57191151401899</v>
+        <v>72.57191151401901</v>
       </c>
       <c r="O44" t="n">
-        <v>68.52759814556018</v>
+        <v>68.52759814556021</v>
       </c>
       <c r="P44" t="n">
-        <v>58.48671957521933</v>
+        <v>58.48671957521935</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.92109066178817</v>
+        <v>43.92109066178818</v>
       </c>
       <c r="R44" t="n">
-        <v>25.54857067318171</v>
+        <v>25.54857067318172</v>
       </c>
       <c r="S44" t="n">
-        <v>9.268112219610822</v>
+        <v>9.268112219610826</v>
       </c>
       <c r="T44" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168793</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705387</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,31 +34439,31 @@
         <v>0.2176139204650132</v>
       </c>
       <c r="H45" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122628</v>
       </c>
       <c r="I45" t="n">
-        <v>7.492409103729621</v>
+        <v>7.492409103729623</v>
       </c>
       <c r="J45" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K45" t="n">
-        <v>35.13987592000171</v>
+        <v>35.13987592000172</v>
       </c>
       <c r="L45" t="n">
-        <v>47.24989970447578</v>
+        <v>47.24989970447579</v>
       </c>
       <c r="M45" t="n">
-        <v>55.13840432133249</v>
+        <v>55.13840432133251</v>
       </c>
       <c r="N45" t="n">
-        <v>56.59775381427551</v>
+        <v>56.59775381427553</v>
       </c>
       <c r="O45" t="n">
-        <v>51.77588747134022</v>
+        <v>51.77588747134023</v>
       </c>
       <c r="P45" t="n">
-        <v>41.55471433862169</v>
+        <v>41.5547143386217</v>
       </c>
       <c r="Q45" t="n">
         <v>27.77822605795502</v>
@@ -34472,13 +34472,13 @@
         <v>13.51115200922249</v>
       </c>
       <c r="S45" t="n">
-        <v>4.042083127935658</v>
+        <v>4.04208312793566</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8771368109971361</v>
+        <v>0.8771368109971364</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375088</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,10 +34521,10 @@
         <v>1.622059239773296</v>
       </c>
       <c r="I46" t="n">
-        <v>5.486474402014377</v>
+        <v>5.486474402014379</v>
       </c>
       <c r="J46" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602957</v>
       </c>
       <c r="K46" t="n">
         <v>21.19623423752833</v>
@@ -34533,31 +34533,31 @@
         <v>27.12388221600457</v>
       </c>
       <c r="M46" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786393</v>
       </c>
       <c r="N46" t="n">
-        <v>27.91832636309191</v>
+        <v>27.91832636309192</v>
       </c>
       <c r="O46" t="n">
-        <v>25.78709310837954</v>
+        <v>25.78709310837955</v>
       </c>
       <c r="P46" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221259</v>
       </c>
       <c r="Q46" t="n">
         <v>15.27687899545176</v>
       </c>
       <c r="R46" t="n">
-        <v>8.203174846542652</v>
+        <v>8.203174846542653</v>
       </c>
       <c r="S46" t="n">
         <v>3.179435135629249</v>
       </c>
       <c r="T46" t="n">
-        <v>0.779517221567943</v>
+        <v>0.7795172215679432</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009951283679590776</v>
+        <v>0.009951283679590779</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35155,7 +35155,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.129915453191039</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -35200,7 +35200,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.129915453191039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -35258,16 +35258,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="N9" t="n">
-        <v>3.069987028295762</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>3.199249640013477</v>
       </c>
       <c r="P9" t="n">
-        <v>3.199249640013477</v>
+        <v>3.069987028295762</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,19 +35410,19 @@
         <v>101.3666451884738</v>
       </c>
       <c r="K11" t="n">
-        <v>171.4210720067668</v>
+        <v>44.94891234750298</v>
       </c>
       <c r="L11" t="n">
-        <v>127.3225377570367</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="M11" t="n">
-        <v>81.67868594641138</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="N11" t="n">
-        <v>76.0887809451438</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O11" t="n">
-        <v>188.4979333192472</v>
+        <v>34.56629766936138</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.34679395543472</v>
+        <v>38.34679395543473</v>
       </c>
       <c r="L12" t="n">
         <v>118.5181001296708</v>
@@ -35544,31 +35544,31 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>11.69108318109548</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>32.96561390235712</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>36.47212294084284</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>39.22138193462118</v>
+        <v>39.22138193462123</v>
       </c>
       <c r="G13" t="n">
-        <v>9.44748922591536</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>12.32386649840125</v>
+        <v>12.3238664984013</v>
       </c>
       <c r="I13" t="n">
-        <v>13.29529608510279</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.90865657015887</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>111.1182840138779</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -35577,16 +35577,16 @@
         <v>152.9313987541744</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>54.47995781244984</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>140.6693801552911</v>
       </c>
       <c r="P13" t="n">
-        <v>93.55608188676845</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.9312781893786</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>83.9352294951855</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>171.4210720067668</v>
+        <v>171.421072006767</v>
       </c>
       <c r="L14" t="n">
-        <v>47.19277018258597</v>
+        <v>47.19277018258599</v>
       </c>
       <c r="M14" t="n">
-        <v>81.67868594641138</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="N14" t="n">
-        <v>76.0887809451438</v>
+        <v>76.08878094514381</v>
       </c>
       <c r="O14" t="n">
-        <v>34.56629766936135</v>
+        <v>34.56629766936138</v>
       </c>
       <c r="P14" t="n">
-        <v>163.056291801979</v>
+        <v>140.1722739243284</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.43652711564583</v>
+        <v>88.43652711564596</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.34679395543472</v>
+        <v>38.34679395543473</v>
       </c>
       <c r="L15" t="n">
         <v>118.5181001296708</v>
@@ -35790,40 +35790,40 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>39.22138193462115</v>
+        <v>39.22138193462126</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>9.447489225915445</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>13.29529608510287</v>
       </c>
       <c r="J16" t="n">
-        <v>57.90865657015884</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>141.0131666570433</v>
+        <v>145.996447904889</v>
       </c>
       <c r="M16" t="n">
-        <v>152.9313987541744</v>
+        <v>152.9313987541745</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>98.92097707473387</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>119.6696652528189</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>50.93127818937869</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,43 +35878,43 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.43790171150837</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>47.19277018258597</v>
+        <v>47.19277018258599</v>
       </c>
       <c r="M17" t="n">
-        <v>81.67868594641138</v>
+        <v>136.550150200329</v>
       </c>
       <c r="N17" t="n">
-        <v>76.0887809451438</v>
+        <v>76.08878094514381</v>
       </c>
       <c r="O17" t="n">
-        <v>34.56629766936135</v>
+        <v>34.56629766936138</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="Q17" t="n">
-        <v>155.6354978334151</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5661255446176</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.93067636853624</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>74.98178952716516</v>
+        <v>74.98178952716522</v>
       </c>
       <c r="U17" t="n">
-        <v>47.29712943433466</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34679395543481</v>
+        <v>38.34679395543473</v>
       </c>
       <c r="L18" t="n">
         <v>118.5181001296708</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>93.50614259421255</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>137.9422068509704</v>
       </c>
       <c r="L20" t="n">
-        <v>47.19277018258597</v>
+        <v>47.19277018258599</v>
       </c>
       <c r="M20" t="n">
-        <v>81.67868594641138</v>
+        <v>81.67868594641141</v>
       </c>
       <c r="N20" t="n">
-        <v>76.0887809451438</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O20" t="n">
-        <v>34.56629766936135</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>102.5661255446176</v>
@@ -36148,10 +36148,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>74.98178952716516</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>47.29712943433466</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.34679395543472</v>
+        <v>38.34679395543473</v>
       </c>
       <c r="L21" t="n">
         <v>118.5181001296708</v>
@@ -36355,40 +36355,40 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>137.9422068509703</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>47.19277018258597</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="M23" t="n">
-        <v>81.67868594641138</v>
+        <v>81.67868594641141</v>
       </c>
       <c r="N23" t="n">
         <v>188.4979333192472</v>
       </c>
       <c r="O23" t="n">
-        <v>188.4979333192472</v>
+        <v>34.56629766936138</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>33.34087356132395</v>
       </c>
       <c r="R23" t="n">
         <v>102.5661255446176</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>69.93067636853624</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>47.29712943433466</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.34679395543472</v>
+        <v>38.34679395543473</v>
       </c>
       <c r="L24" t="n">
         <v>118.5181001296708</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.7031315594069</v>
+        <v>136.703131559407</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7575583777</v>
+        <v>206.7575583777001</v>
       </c>
       <c r="L26" t="n">
         <v>260.677520706587</v>
       </c>
       <c r="M26" t="n">
-        <v>295.1634364704123</v>
+        <v>295.1634364704124</v>
       </c>
       <c r="N26" t="n">
         <v>289.5735314691448</v>
       </c>
       <c r="O26" t="n">
-        <v>248.0510481933623</v>
+        <v>248.0510481933624</v>
       </c>
       <c r="P26" t="n">
-        <v>198.3927781729122</v>
+        <v>198.3927781729123</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.773013486579</v>
+        <v>123.7730134865791</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60320514163411</v>
+        <v>18.60320514163419</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.34679395543472</v>
+        <v>38.34679395543473</v>
       </c>
       <c r="L27" t="n">
         <v>118.5181001296708</v>
@@ -36744,16 +36744,16 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>47.66035286933437</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>48.63178245603592</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.245142941092</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>43.03425179501985</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -36762,13 +36762,13 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>77.56537843772956</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>155.0061516237521</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>136.7031315594069</v>
+        <v>136.703131559407</v>
       </c>
       <c r="K29" t="n">
-        <v>206.7575583777</v>
+        <v>206.7575583777001</v>
       </c>
       <c r="L29" t="n">
         <v>260.677520706587</v>
@@ -36844,16 +36844,16 @@
         <v>289.5735314691448</v>
       </c>
       <c r="O29" t="n">
-        <v>248.0510481933623</v>
+        <v>248.0510481933624</v>
       </c>
       <c r="P29" t="n">
-        <v>198.3927781729122</v>
+        <v>198.3927781729123</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.773013486579</v>
+        <v>123.7730134865791</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60320514163415</v>
+        <v>18.60320514163418</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.34679395543472</v>
+        <v>38.34679395543473</v>
       </c>
       <c r="L30" t="n">
         <v>118.5181001296708</v>
@@ -36993,22 +36993,22 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>146.3037655011699</v>
       </c>
       <c r="M31" t="n">
-        <v>56.56566353525776</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>176.0058665262242</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.2677645603118</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.5308414262712</v>
+        <v>117.4137166761573</v>
       </c>
       <c r="K32" t="n">
-        <v>207.5852682445643</v>
+        <v>207.5852682445642</v>
       </c>
       <c r="L32" t="n">
-        <v>261.5052305734513</v>
+        <v>261.5052305734512</v>
       </c>
       <c r="M32" t="n">
-        <v>275.8740215871615</v>
+        <v>295.9911463372766</v>
       </c>
       <c r="N32" t="n">
-        <v>290.4012413360091</v>
+        <v>290.401241336009</v>
       </c>
       <c r="O32" t="n">
         <v>248.8787580602266</v>
@@ -37087,10 +37087,10 @@
         <v>199.2204880397765</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.6007233534433</v>
+        <v>124.6007233534432</v>
       </c>
       <c r="R32" t="n">
-        <v>19.43091500849844</v>
+        <v>19.43091500849836</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.34679395543472</v>
+        <v>38.34679395543473</v>
       </c>
       <c r="L33" t="n">
         <v>118.5181001296708</v>
@@ -37218,16 +37218,16 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>29.9179473776828</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>49.45949232290025</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>147.2824802516753</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>139.564445525083</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>87.09547442717599</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.04939904079267</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>195.2775492916747</v>
       </c>
       <c r="K35" t="n">
-        <v>260.4608093700286</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>47.19277018258597</v>
+        <v>47.19277018258599</v>
       </c>
       <c r="M35" t="n">
-        <v>81.67868594641138</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="N35" t="n">
-        <v>76.0887809451438</v>
+        <v>76.08878094514381</v>
       </c>
       <c r="O35" t="n">
-        <v>34.56629766936135</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="P35" t="n">
-        <v>124.7136838496974</v>
+        <v>169.9302224915782</v>
       </c>
       <c r="Q35" t="n">
-        <v>182.3474312188467</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>77.17762287390188</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>44.54217369782054</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>49.59328685644947</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>21.90862676361897</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.34679395543472</v>
+        <v>38.34679395543473</v>
       </c>
       <c r="L36" t="n">
         <v>118.5181001296708</v>
@@ -37455,22 +37455,22 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
         <v>35.55650193384704</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -37537,43 +37537,43 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.04939904079261</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="L38" t="n">
-        <v>47.19277018258597</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="M38" t="n">
-        <v>81.67868594641138</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="N38" t="n">
-        <v>76.0887809451438</v>
+        <v>76.08878094514381</v>
       </c>
       <c r="O38" t="n">
-        <v>256.9090555381782</v>
+        <v>52.12856278770673</v>
       </c>
       <c r="P38" t="n">
-        <v>256.9671959051799</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>182.3474312188467</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>77.17762287390183</v>
+        <v>77.17762287390188</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>44.54217369782054</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>21.90862676361892</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.34679395543472</v>
+        <v>38.34679395543473</v>
       </c>
       <c r="L39" t="n">
         <v>118.5181001296708</v>
@@ -37704,7 +37704,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>35.55650193384704</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>35.55650193384716</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37780,31 +37780,31 @@
         <v>164.228150250882</v>
       </c>
       <c r="K41" t="n">
-        <v>234.282577069175</v>
+        <v>234.2825770691751</v>
       </c>
       <c r="L41" t="n">
-        <v>288.202539398062</v>
+        <v>47.19277018258599</v>
       </c>
       <c r="M41" t="n">
         <v>322.6884551618874</v>
       </c>
       <c r="N41" t="n">
-        <v>76.0887809451438</v>
+        <v>76.08878094514381</v>
       </c>
       <c r="O41" t="n">
         <v>275.5760668848374</v>
       </c>
       <c r="P41" t="n">
-        <v>28.05746939734858</v>
+        <v>58.14820794463331</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>151.2980321780541</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>46.12822383310917</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>13.49277465702784</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.34679395543472</v>
+        <v>38.34679395543473</v>
       </c>
       <c r="L42" t="n">
         <v>118.5181001296708</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>80.27869880645024</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -37953,7 +37953,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>103.0986344208987</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -37962,10 +37962,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>5.571724849295451</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>17.248210765153</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>56.07955982126575</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>234.2825770691751</v>
       </c>
       <c r="L44" t="n">
-        <v>288.202539398062</v>
+        <v>47.19277018258599</v>
       </c>
       <c r="M44" t="n">
-        <v>98.99439114869124</v>
+        <v>322.6884551618874</v>
       </c>
       <c r="N44" t="n">
         <v>317.0985501606198</v>
       </c>
       <c r="O44" t="n">
-        <v>275.5760668848374</v>
+        <v>34.56629766936138</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9177968643872</v>
+        <v>225.9177968643873</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.298032178054</v>
+        <v>151.2980321780541</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>13.49277465702783</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>18.54388781565676</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.34679395543472</v>
+        <v>38.34679395543473</v>
       </c>
       <c r="L45" t="n">
         <v>118.5181001296708</v>
@@ -38175,16 +38175,16 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
         <v>103.0986344208987</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
